--- a/documentation/SSABooster/Variáveis Aquisição Booster.xlsx
+++ b/documentation/SSABooster/Variáveis Aquisição Booster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.daminelli@lnls.br\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47ACE303-FA64-422A-A1DF-B4F36CF2F27D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45ECC22-C1FD-4ACD-B305-CB2C5A093A08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18900,12 +18900,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e2216931ecfa3ed1671143eb7091a50c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c4ad10e40a35dea085704c72c01ed87" ns2:_="" ns3:_="">
     <xsd:import namespace="40443515-7982-453e-8cc3-61a478897d4d"/>
@@ -19096,23 +19105,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45D103D-A57F-47D5-B272-EC4090B47FD6}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{210FDAB5-8E17-4762-B1CB-54C1272C90BC}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A910CF9-51B6-440E-AF9A-CF1ACA615005}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45D103D-A57F-47D5-B272-EC4090B47FD6}"/>
 </file>
--- a/documentation/SSABooster/Variáveis Aquisição Booster.xlsx
+++ b/documentation/SSABooster/Variáveis Aquisição Booster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_34f9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3BEC574-E00B-4367-B80D-5928483F1E49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBE16CB-EBF0-43CD-B978-011F4C686053}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="234">
   <si>
     <t>Tower</t>
   </si>
@@ -352,6 +352,9 @@
     <t>H02M10</t>
   </si>
   <si>
+    <t>H02M11</t>
+  </si>
+  <si>
     <t>H02M12</t>
   </si>
   <si>
@@ -403,6 +406,9 @@
     <t>H03M10</t>
   </si>
   <si>
+    <t>H03M11</t>
+  </si>
+  <si>
     <t>H03M12</t>
   </si>
   <si>
@@ -454,6 +460,9 @@
     <t>H04M10</t>
   </si>
   <si>
+    <t>H04M11</t>
+  </si>
+  <si>
     <t>H04M12</t>
   </si>
   <si>
@@ -505,6 +514,9 @@
     <t>H05M10</t>
   </si>
   <si>
+    <t>H05M11</t>
+  </si>
+  <si>
     <t>H05M12</t>
   </si>
   <si>
@@ -556,6 +568,9 @@
     <t>H06M10</t>
   </si>
   <si>
+    <t>H06M11</t>
+  </si>
+  <si>
     <t>H06M12</t>
   </si>
   <si>
@@ -607,6 +622,9 @@
     <t>H07M10</t>
   </si>
   <si>
+    <t>H07M11</t>
+  </si>
+  <si>
     <t>H07M12</t>
   </si>
   <si>
@@ -656,6 +674,9 @@
   </si>
   <si>
     <t>H08M10</t>
+  </si>
+  <si>
+    <t>H08M11</t>
   </si>
   <si>
     <t>H08M12</t>
@@ -1257,19 +1278,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,8 +1587,8 @@
   <dimension ref="A1:N316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="J300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N305" sqref="N305:N311"/>
+      <pane ySplit="1" topLeftCell="B265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1702,10 +1723,10 @@
         <f t="shared" ref="K3:K66" si="0">E3 &amp; "-" &amp; F3 &amp;":" &amp; G3 &amp; "-" &amp; H3 &amp; "-" &amp; I3 &amp; ":" &amp; J3</f>
         <v>RA-ToBO:RF-SSAmp-H01M01:Current1-Mon</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1744,10 +1765,10 @@
         <f>E4 &amp; "-" &amp; F4 &amp;":" &amp; G4 &amp; "-" &amp; H4 &amp; "-" &amp; I4 &amp; ":" &amp; J4</f>
         <v>RA-ToBO:RF-SSAmp-H01M01:Current2-Mon</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="67"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="17">
@@ -1784,10 +1805,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M02:Current1-Mon</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="67">
         <v>1</v>
       </c>
     </row>
@@ -1826,10 +1847,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M02:Current2-Mon</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="65"/>
+      <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="17">
@@ -1866,10 +1887,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M03:Current1-Mon</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="L7" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="66">
         <v>2</v>
       </c>
     </row>
@@ -1908,10 +1929,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M03:Current2-Mon</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="67"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="17">
@@ -1948,10 +1969,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M04:Current1-Mon</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="67">
         <v>3</v>
       </c>
     </row>
@@ -1990,10 +2011,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M04:Current2-Mon</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="65"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="17">
@@ -2030,10 +2051,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M05:Current1-Mon</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="66">
         <v>4</v>
       </c>
     </row>
@@ -2072,10 +2093,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M05:Current2-Mon</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="67"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="17">
@@ -2112,10 +2133,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M06:Current1-Mon</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="67">
         <v>5</v>
       </c>
     </row>
@@ -2154,10 +2175,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M06:Current2-Mon</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="17">
@@ -2194,10 +2215,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M07:Current1-Mon</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="66">
         <v>6</v>
       </c>
     </row>
@@ -2236,10 +2257,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M07:Current2-Mon</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="67"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="17">
@@ -2276,10 +2297,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M08:Current1-Mon</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="65">
+      <c r="M17" s="67">
         <v>7</v>
       </c>
     </row>
@@ -2318,10 +2339,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M08:Current2-Mon</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="65"/>
+      <c r="M18" s="67"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="17">
@@ -2358,10 +2379,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M09:Current1-Mon</v>
       </c>
-      <c r="L19" s="63" t="s">
+      <c r="L19" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="66">
         <v>8</v>
       </c>
     </row>
@@ -2400,10 +2421,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M09:Current2-Mon</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="67"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="17">
@@ -2440,10 +2461,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M10:Current1-Mon</v>
       </c>
-      <c r="L21" s="63" t="s">
+      <c r="L21" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="67">
         <v>9</v>
       </c>
     </row>
@@ -2482,10 +2503,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M10:Current2-Mon</v>
       </c>
-      <c r="L22" s="64" t="s">
+      <c r="L22" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="65"/>
+      <c r="M22" s="67"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="17">
@@ -2522,10 +2543,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M11:Current1-Mon</v>
       </c>
-      <c r="L23" s="63" t="s">
+      <c r="L23" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="66">
         <v>10</v>
       </c>
     </row>
@@ -2564,10 +2585,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M11:Current2-Mon</v>
       </c>
-      <c r="L24" s="64" t="s">
+      <c r="L24" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="67"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="17">
@@ -2604,10 +2625,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M12:Current1-Mon</v>
       </c>
-      <c r="L25" s="63" t="s">
+      <c r="L25" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M25" s="67">
         <v>11</v>
       </c>
     </row>
@@ -2646,10 +2667,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M12:Current2-Mon</v>
       </c>
-      <c r="L26" s="64" t="s">
+      <c r="L26" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="67"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="17">
@@ -2686,10 +2707,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M13:Current1-Mon</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="67">
+      <c r="M27" s="66">
         <v>12</v>
       </c>
     </row>
@@ -2728,10 +2749,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M13:Current2-Mon</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M28" s="67"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="17">
@@ -2768,10 +2789,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M14:Current1-Mon</v>
       </c>
-      <c r="L29" s="63" t="s">
+      <c r="L29" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="67">
         <v>13</v>
       </c>
     </row>
@@ -2810,10 +2831,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M14:Current2-Mon</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M30" s="65"/>
+      <c r="M30" s="67"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="17">
@@ -2850,10 +2871,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M15:Current1-Mon</v>
       </c>
-      <c r="L31" s="63" t="s">
+      <c r="L31" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="67">
+      <c r="M31" s="66">
         <v>14</v>
       </c>
     </row>
@@ -2892,10 +2913,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M15:Current2-Mon</v>
       </c>
-      <c r="L32" s="64" t="s">
+      <c r="L32" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="67"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="17">
@@ -2932,10 +2953,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M16:Current1-Mon</v>
       </c>
-      <c r="L33" s="63" t="s">
+      <c r="L33" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M33" s="65">
+      <c r="M33" s="67">
         <v>15</v>
       </c>
     </row>
@@ -2974,10 +2995,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M16:Current2-Mon</v>
       </c>
-      <c r="L34" s="64" t="s">
+      <c r="L34" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M34" s="65"/>
+      <c r="M34" s="67"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="17">
@@ -3014,10 +3035,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M17:Current1-Mon</v>
       </c>
-      <c r="L35" s="63" t="s">
+      <c r="L35" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M35" s="67">
+      <c r="M35" s="66">
         <v>16</v>
       </c>
     </row>
@@ -3056,10 +3077,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H01M17:Current2-Mon</v>
       </c>
-      <c r="L36" s="64" t="s">
+      <c r="L36" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M36" s="67"/>
+      <c r="M36" s="66"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="17">
@@ -3096,7 +3117,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H01:PwrRevBot-Mon</v>
       </c>
-      <c r="L37" s="63" t="s">
+      <c r="L37" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -3138,7 +3159,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H01:PwrFwdBot-Mon</v>
       </c>
-      <c r="L38" s="64" t="s">
+      <c r="L38" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M38" s="44" t="s">
@@ -3180,7 +3201,7 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-HeatSink-H01:PwrRevTop-Mon</v>
       </c>
-      <c r="L39" s="63" t="s">
+      <c r="L39" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -3264,10 +3285,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M01:Current1-Mon</v>
       </c>
-      <c r="L41" s="63" t="s">
+      <c r="L41" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M41" s="66" t="s">
+      <c r="M41" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3306,10 +3327,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M01:Current2-Mon</v>
       </c>
-      <c r="L42" s="64" t="s">
+      <c r="L42" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="67"/>
+      <c r="M42" s="66"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="17">
@@ -3346,10 +3367,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M02:Current1-Mon</v>
       </c>
-      <c r="L43" s="63" t="s">
+      <c r="L43" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M43" s="65">
+      <c r="M43" s="67">
         <v>1</v>
       </c>
     </row>
@@ -3388,10 +3409,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M02:Current2-Mon</v>
       </c>
-      <c r="L44" s="64" t="s">
+      <c r="L44" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M44" s="65"/>
+      <c r="M44" s="67"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="17">
@@ -3428,10 +3449,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M03:Current1-Mon</v>
       </c>
-      <c r="L45" s="63" t="s">
+      <c r="L45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M45" s="67">
+      <c r="M45" s="66">
         <v>2</v>
       </c>
     </row>
@@ -3470,10 +3491,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M03:Current2-Mon</v>
       </c>
-      <c r="L46" s="64" t="s">
+      <c r="L46" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M46" s="67"/>
+      <c r="M46" s="66"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="17">
@@ -3510,10 +3531,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M04:Current1-Mon</v>
       </c>
-      <c r="L47" s="63" t="s">
+      <c r="L47" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="65">
+      <c r="M47" s="67">
         <v>3</v>
       </c>
     </row>
@@ -3552,10 +3573,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M04:Current2-Mon</v>
       </c>
-      <c r="L48" s="64" t="s">
+      <c r="L48" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M48" s="65"/>
+      <c r="M48" s="67"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="17">
@@ -3592,10 +3613,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M05:Current1-Mon</v>
       </c>
-      <c r="L49" s="63" t="s">
+      <c r="L49" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="67">
+      <c r="M49" s="66">
         <v>4</v>
       </c>
     </row>
@@ -3634,10 +3655,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M05:Current2-Mon</v>
       </c>
-      <c r="L50" s="64" t="s">
+      <c r="L50" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M50" s="67"/>
+      <c r="M50" s="66"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="17">
@@ -3674,10 +3695,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M06:Current1-Mon</v>
       </c>
-      <c r="L51" s="63" t="s">
+      <c r="L51" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M51" s="65">
+      <c r="M51" s="67">
         <v>5</v>
       </c>
     </row>
@@ -3716,10 +3737,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M06:Current2-Mon</v>
       </c>
-      <c r="L52" s="64" t="s">
+      <c r="L52" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="65"/>
+      <c r="M52" s="67"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="17">
@@ -3756,10 +3777,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M07:Current1-Mon</v>
       </c>
-      <c r="L53" s="63" t="s">
+      <c r="L53" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M53" s="67">
+      <c r="M53" s="66">
         <v>6</v>
       </c>
     </row>
@@ -3798,10 +3819,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M07:Current2-Mon</v>
       </c>
-      <c r="L54" s="64" t="s">
+      <c r="L54" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M54" s="67"/>
+      <c r="M54" s="66"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="17">
@@ -3838,10 +3859,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M08:Current1-Mon</v>
       </c>
-      <c r="L55" s="63" t="s">
+      <c r="L55" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M55" s="65">
+      <c r="M55" s="67">
         <v>7</v>
       </c>
     </row>
@@ -3880,10 +3901,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M08:Current2-Mon</v>
       </c>
-      <c r="L56" s="64" t="s">
+      <c r="L56" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M56" s="65"/>
+      <c r="M56" s="67"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="17">
@@ -3920,10 +3941,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M09:Current1-Mon</v>
       </c>
-      <c r="L57" s="63" t="s">
+      <c r="L57" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M57" s="67">
+      <c r="M57" s="66">
         <v>8</v>
       </c>
     </row>
@@ -3962,10 +3983,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M09:Current2-Mon</v>
       </c>
-      <c r="L58" s="64" t="s">
+      <c r="L58" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M58" s="67"/>
+      <c r="M58" s="66"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="17">
@@ -4002,10 +4023,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M10:Current1-Mon</v>
       </c>
-      <c r="L59" s="63" t="s">
+      <c r="L59" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M59" s="65">
+      <c r="M59" s="67">
         <v>9</v>
       </c>
     </row>
@@ -4044,10 +4065,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M10:Current2-Mon</v>
       </c>
-      <c r="L60" s="64" t="s">
+      <c r="L60" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M60" s="65"/>
+      <c r="M60" s="67"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="17">
@@ -4075,19 +4096,19 @@
         <v>24</v>
       </c>
       <c r="I61" s="52" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J61" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K61" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>RA-ToBO:RF-SSAmp-H02M01:Current1-Mon</v>
-      </c>
-      <c r="L61" s="63" t="s">
+        <v>RA-ToBO:RF-SSAmp-H02M11:Current1-Mon</v>
+      </c>
+      <c r="L61" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M61" s="67">
+      <c r="M61" s="66">
         <v>10</v>
       </c>
     </row>
@@ -4117,19 +4138,19 @@
         <v>24</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J62" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K62" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>RA-ToBO:RF-SSAmp-H02M01:Current2-Mon</v>
-      </c>
-      <c r="L62" s="64" t="s">
+        <v>RA-ToBO:RF-SSAmp-H02M11:Current2-Mon</v>
+      </c>
+      <c r="L62" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M62" s="67"/>
+      <c r="M62" s="66"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="17">
@@ -4157,7 +4178,7 @@
         <v>24</v>
       </c>
       <c r="I63" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J63" s="31" t="s">
         <v>26</v>
@@ -4166,10 +4187,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M12:Current1-Mon</v>
       </c>
-      <c r="L63" s="63" t="s">
+      <c r="L63" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M63" s="65">
+      <c r="M63" s="67">
         <v>11</v>
       </c>
     </row>
@@ -4199,7 +4220,7 @@
         <v>24</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J64" s="26" t="s">
         <v>30</v>
@@ -4208,10 +4229,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M12:Current2-Mon</v>
       </c>
-      <c r="L64" s="64" t="s">
+      <c r="L64" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M64" s="65"/>
+      <c r="M64" s="67"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="17">
@@ -4239,7 +4260,7 @@
         <v>24</v>
       </c>
       <c r="I65" s="52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J65" s="31" t="s">
         <v>26</v>
@@ -4248,10 +4269,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M13:Current1-Mon</v>
       </c>
-      <c r="L65" s="63" t="s">
+      <c r="L65" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M65" s="67">
+      <c r="M65" s="66">
         <v>12</v>
       </c>
     </row>
@@ -4281,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J66" s="26" t="s">
         <v>30</v>
@@ -4290,10 +4311,10 @@
         <f t="shared" si="0"/>
         <v>RA-ToBO:RF-SSAmp-H02M13:Current2-Mon</v>
       </c>
-      <c r="L66" s="64" t="s">
+      <c r="L66" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M66" s="67"/>
+      <c r="M66" s="66"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="17">
@@ -4321,7 +4342,7 @@
         <v>24</v>
       </c>
       <c r="I67" s="52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J67" s="31" t="s">
         <v>26</v>
@@ -4330,10 +4351,10 @@
         <f t="shared" ref="K67:K130" si="1">E67 &amp; "-" &amp; F67 &amp;":" &amp; G67 &amp; "-" &amp; H67 &amp; "-" &amp; I67 &amp; ":" &amp; J67</f>
         <v>RA-ToBO:RF-SSAmp-H02M14:Current1-Mon</v>
       </c>
-      <c r="L67" s="63" t="s">
+      <c r="L67" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M67" s="65">
+      <c r="M67" s="67">
         <v>13</v>
       </c>
     </row>
@@ -4363,7 +4384,7 @@
         <v>24</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J68" s="26" t="s">
         <v>30</v>
@@ -4372,10 +4393,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H02M14:Current2-Mon</v>
       </c>
-      <c r="L68" s="64" t="s">
+      <c r="L68" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M68" s="65"/>
+      <c r="M68" s="67"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="17">
@@ -4403,7 +4424,7 @@
         <v>24</v>
       </c>
       <c r="I69" s="52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J69" s="31" t="s">
         <v>26</v>
@@ -4412,10 +4433,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H02M15:Current1-Mon</v>
       </c>
-      <c r="L69" s="63" t="s">
+      <c r="L69" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M69" s="67">
+      <c r="M69" s="66">
         <v>14</v>
       </c>
     </row>
@@ -4445,7 +4466,7 @@
         <v>24</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J70" s="26" t="s">
         <v>30</v>
@@ -4454,10 +4475,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H02M15:Current2-Mon</v>
       </c>
-      <c r="L70" s="64" t="s">
+      <c r="L70" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M70" s="67"/>
+      <c r="M70" s="66"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="17">
@@ -4485,7 +4506,7 @@
         <v>24</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>26</v>
@@ -4494,10 +4515,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H02M16:Current1-Mon</v>
       </c>
-      <c r="L71" s="63" t="s">
+      <c r="L71" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M71" s="65">
+      <c r="M71" s="67">
         <v>15</v>
       </c>
     </row>
@@ -4527,7 +4548,7 @@
         <v>24</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J72" s="26" t="s">
         <v>30</v>
@@ -4536,10 +4557,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H02M16:Current2-Mon</v>
       </c>
-      <c r="L72" s="64" t="s">
+      <c r="L72" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M72" s="65"/>
+      <c r="M72" s="67"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="17">
@@ -4567,7 +4588,7 @@
         <v>24</v>
       </c>
       <c r="I73" s="52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>26</v>
@@ -4576,10 +4597,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H02M17:Current1-Mon</v>
       </c>
-      <c r="L73" s="63" t="s">
+      <c r="L73" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M73" s="67">
+      <c r="M73" s="66">
         <v>16</v>
       </c>
     </row>
@@ -4609,7 +4630,7 @@
         <v>24</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J74" s="26" t="s">
         <v>30</v>
@@ -4618,10 +4639,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H02M17:Current2-Mon</v>
       </c>
-      <c r="L74" s="64" t="s">
+      <c r="L74" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M74" s="67"/>
+      <c r="M74" s="66"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="17">
@@ -4649,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J75" s="31" t="s">
         <v>88</v>
@@ -4658,7 +4679,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-HeatSink-H02:PwrRevBot-Mon</v>
       </c>
-      <c r="L75" s="63" t="s">
+      <c r="L75" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M75" s="2" t="s">
@@ -4691,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J76" s="26" t="s">
         <v>91</v>
@@ -4700,7 +4721,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-HeatSink-H02:PwrFwdBot-Mon</v>
       </c>
-      <c r="L76" s="64" t="s">
+      <c r="L76" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M76" s="44" t="s">
@@ -4733,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J77" s="31" t="s">
         <v>93</v>
@@ -4742,7 +4763,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-HeatSink-H02:PwrRevTop-Mon</v>
       </c>
-      <c r="L77" s="63" t="s">
+      <c r="L77" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M77" s="2" t="s">
@@ -4775,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J78" s="37" t="s">
         <v>94</v>
@@ -4817,7 +4838,7 @@
         <v>24</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J79" s="31" t="s">
         <v>26</v>
@@ -4826,10 +4847,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M01:Current1-Mon</v>
       </c>
-      <c r="L79" s="63" t="s">
+      <c r="L79" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M79" s="67">
+      <c r="M79" s="66">
         <v>1</v>
       </c>
     </row>
@@ -4859,7 +4880,7 @@
         <v>24</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J80" s="26" t="s">
         <v>30</v>
@@ -4868,10 +4889,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M01:Current2-Mon</v>
       </c>
-      <c r="L80" s="64" t="s">
+      <c r="L80" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M80" s="67"/>
+      <c r="M80" s="66"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="17">
@@ -4899,7 +4920,7 @@
         <v>24</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J81" s="31" t="s">
         <v>26</v>
@@ -4908,10 +4929,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M02:Current1-Mon</v>
       </c>
-      <c r="L81" s="63" t="s">
+      <c r="L81" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M81" s="65">
+      <c r="M81" s="67">
         <v>2</v>
       </c>
     </row>
@@ -4941,7 +4962,7 @@
         <v>24</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J82" s="26" t="s">
         <v>30</v>
@@ -4950,10 +4971,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M02:Current2-Mon</v>
       </c>
-      <c r="L82" s="64" t="s">
+      <c r="L82" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M82" s="65"/>
+      <c r="M82" s="67"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="17">
@@ -4981,7 +5002,7 @@
         <v>24</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J83" s="31" t="s">
         <v>26</v>
@@ -4990,10 +5011,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M02:Current1-Mon</v>
       </c>
-      <c r="L83" s="63" t="s">
+      <c r="L83" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M83" s="67">
+      <c r="M83" s="66">
         <v>3</v>
       </c>
     </row>
@@ -5023,7 +5044,7 @@
         <v>24</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J84" s="26" t="s">
         <v>30</v>
@@ -5032,10 +5053,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M03:Current2-Mon</v>
       </c>
-      <c r="L84" s="64" t="s">
+      <c r="L84" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M84" s="67"/>
+      <c r="M84" s="66"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="17">
@@ -5063,7 +5084,7 @@
         <v>24</v>
       </c>
       <c r="I85" s="52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>26</v>
@@ -5072,10 +5093,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M04:Current1-Mon</v>
       </c>
-      <c r="L85" s="63" t="s">
+      <c r="L85" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M85" s="65">
+      <c r="M85" s="67">
         <v>4</v>
       </c>
     </row>
@@ -5105,7 +5126,7 @@
         <v>24</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J86" s="26" t="s">
         <v>30</v>
@@ -5114,10 +5135,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M04:Current2-Mon</v>
       </c>
-      <c r="L86" s="64" t="s">
+      <c r="L86" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M86" s="65"/>
+      <c r="M86" s="67"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="17">
@@ -5145,7 +5166,7 @@
         <v>24</v>
       </c>
       <c r="I87" s="52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J87" s="31" t="s">
         <v>26</v>
@@ -5154,10 +5175,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M05:Current1-Mon</v>
       </c>
-      <c r="L87" s="63" t="s">
+      <c r="L87" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M87" s="67">
+      <c r="M87" s="66">
         <v>5</v>
       </c>
     </row>
@@ -5187,7 +5208,7 @@
         <v>24</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J88" s="26" t="s">
         <v>30</v>
@@ -5196,10 +5217,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M05:Current2-Mon</v>
       </c>
-      <c r="L88" s="64" t="s">
+      <c r="L88" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M88" s="67"/>
+      <c r="M88" s="66"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="17">
@@ -5227,7 +5248,7 @@
         <v>24</v>
       </c>
       <c r="I89" s="52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J89" s="31" t="s">
         <v>26</v>
@@ -5236,10 +5257,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M06:Current1-Mon</v>
       </c>
-      <c r="L89" s="63" t="s">
+      <c r="L89" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M89" s="65">
+      <c r="M89" s="67">
         <v>6</v>
       </c>
     </row>
@@ -5269,7 +5290,7 @@
         <v>24</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J90" s="26" t="s">
         <v>30</v>
@@ -5278,10 +5299,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M06:Current2-Mon</v>
       </c>
-      <c r="L90" s="64" t="s">
+      <c r="L90" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M90" s="65"/>
+      <c r="M90" s="67"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="17">
@@ -5309,7 +5330,7 @@
         <v>24</v>
       </c>
       <c r="I91" s="52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J91" s="31" t="s">
         <v>26</v>
@@ -5318,10 +5339,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M07:Current1-Mon</v>
       </c>
-      <c r="L91" s="63" t="s">
+      <c r="L91" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M91" s="67">
+      <c r="M91" s="66">
         <v>7</v>
       </c>
     </row>
@@ -5351,7 +5372,7 @@
         <v>24</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J92" s="26" t="s">
         <v>30</v>
@@ -5360,10 +5381,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M07:Current2-Mon</v>
       </c>
-      <c r="L92" s="64" t="s">
+      <c r="L92" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M92" s="67"/>
+      <c r="M92" s="66"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="17">
@@ -5391,7 +5412,7 @@
         <v>24</v>
       </c>
       <c r="I93" s="52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J93" s="31" t="s">
         <v>26</v>
@@ -5400,10 +5421,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M08:Current1-Mon</v>
       </c>
-      <c r="L93" s="63" t="s">
+      <c r="L93" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M93" s="65">
+      <c r="M93" s="67">
         <v>8</v>
       </c>
     </row>
@@ -5433,7 +5454,7 @@
         <v>24</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J94" s="26" t="s">
         <v>30</v>
@@ -5442,10 +5463,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M08:Current2-Mon</v>
       </c>
-      <c r="L94" s="64" t="s">
+      <c r="L94" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M94" s="65"/>
+      <c r="M94" s="67"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="17">
@@ -5473,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J95" s="31" t="s">
         <v>26</v>
@@ -5482,10 +5503,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M09:Current1-Mon</v>
       </c>
-      <c r="L95" s="63" t="s">
+      <c r="L95" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M95" s="67">
+      <c r="M95" s="66">
         <v>9</v>
       </c>
     </row>
@@ -5515,7 +5536,7 @@
         <v>24</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J96" s="26" t="s">
         <v>30</v>
@@ -5524,10 +5545,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M09:Current2-Mon</v>
       </c>
-      <c r="L96" s="64" t="s">
+      <c r="L96" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M96" s="67"/>
+      <c r="M96" s="66"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="17">
@@ -5555,7 +5576,7 @@
         <v>24</v>
       </c>
       <c r="I97" s="52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J97" s="31" t="s">
         <v>26</v>
@@ -5564,10 +5585,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M10:Current1-Mon</v>
       </c>
-      <c r="L97" s="63" t="s">
+      <c r="L97" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M97" s="65">
+      <c r="M97" s="67">
         <v>10</v>
       </c>
     </row>
@@ -5597,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J98" s="26" t="s">
         <v>30</v>
@@ -5606,10 +5627,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M10:Current2-Mon</v>
       </c>
-      <c r="L98" s="64" t="s">
+      <c r="L98" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M98" s="65"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="17">
@@ -5637,19 +5658,19 @@
         <v>24</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J99" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K99" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToBO:RF-SSAmp-H03M01:Current1-Mon</v>
-      </c>
-      <c r="L99" s="63" t="s">
+        <v>RA-ToBO:RF-SSAmp-H03M11:Current1-Mon</v>
+      </c>
+      <c r="L99" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M99" s="67">
+      <c r="M99" s="66">
         <v>11</v>
       </c>
     </row>
@@ -5679,19 +5700,19 @@
         <v>24</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J100" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K100" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToBO:RF-SSAmp-H03M01:Current2-Mon</v>
-      </c>
-      <c r="L100" s="64" t="s">
+        <v>RA-ToBO:RF-SSAmp-H03M11:Current2-Mon</v>
+      </c>
+      <c r="L100" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M100" s="67"/>
+      <c r="M100" s="66"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="17">
@@ -5719,7 +5740,7 @@
         <v>24</v>
       </c>
       <c r="I101" s="52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J101" s="31" t="s">
         <v>26</v>
@@ -5728,10 +5749,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M12:Current1-Mon</v>
       </c>
-      <c r="L101" s="63" t="s">
+      <c r="L101" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M101" s="65">
+      <c r="M101" s="67">
         <v>12</v>
       </c>
     </row>
@@ -5761,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J102" s="26" t="s">
         <v>30</v>
@@ -5770,10 +5791,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M12:Current2-Mon</v>
       </c>
-      <c r="L102" s="64" t="s">
+      <c r="L102" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M102" s="65"/>
+      <c r="M102" s="67"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="17">
@@ -5801,7 +5822,7 @@
         <v>24</v>
       </c>
       <c r="I103" s="52" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J103" s="31" t="s">
         <v>26</v>
@@ -5810,10 +5831,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M13:Current1-Mon</v>
       </c>
-      <c r="L103" s="63" t="s">
+      <c r="L103" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M103" s="67">
+      <c r="M103" s="66">
         <v>13</v>
       </c>
     </row>
@@ -5843,7 +5864,7 @@
         <v>24</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J104" s="26" t="s">
         <v>30</v>
@@ -5852,10 +5873,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M13:Current2-Mon</v>
       </c>
-      <c r="L104" s="64" t="s">
+      <c r="L104" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M104" s="67"/>
+      <c r="M104" s="66"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="17">
@@ -5883,7 +5904,7 @@
         <v>24</v>
       </c>
       <c r="I105" s="52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J105" s="31" t="s">
         <v>26</v>
@@ -5892,10 +5913,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M14:Current1-Mon</v>
       </c>
-      <c r="L105" s="63" t="s">
+      <c r="L105" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M105" s="65">
+      <c r="M105" s="67">
         <v>14</v>
       </c>
     </row>
@@ -5925,7 +5946,7 @@
         <v>24</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J106" s="26" t="s">
         <v>30</v>
@@ -5934,10 +5955,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M14:Current2-Mon</v>
       </c>
-      <c r="L106" s="64" t="s">
+      <c r="L106" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M106" s="65"/>
+      <c r="M106" s="67"/>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="17">
@@ -5965,7 +5986,7 @@
         <v>24</v>
       </c>
       <c r="I107" s="52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J107" s="31" t="s">
         <v>26</v>
@@ -5974,10 +5995,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M15:Current1-Mon</v>
       </c>
-      <c r="L107" s="63" t="s">
+      <c r="L107" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M107" s="67">
+      <c r="M107" s="66">
         <v>15</v>
       </c>
     </row>
@@ -6007,7 +6028,7 @@
         <v>24</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J108" s="26" t="s">
         <v>30</v>
@@ -6016,10 +6037,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M15:Current2-Mon</v>
       </c>
-      <c r="L108" s="64" t="s">
+      <c r="L108" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M108" s="67"/>
+      <c r="M108" s="66"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="17">
@@ -6047,7 +6068,7 @@
         <v>24</v>
       </c>
       <c r="I109" s="52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J109" s="31" t="s">
         <v>26</v>
@@ -6056,10 +6077,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M16:Current1-Mon</v>
       </c>
-      <c r="L109" s="63" t="s">
+      <c r="L109" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M109" s="65">
+      <c r="M109" s="67">
         <v>16</v>
       </c>
     </row>
@@ -6089,7 +6110,7 @@
         <v>24</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J110" s="26" t="s">
         <v>30</v>
@@ -6098,10 +6119,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M16:Current2-Mon</v>
       </c>
-      <c r="L110" s="64" t="s">
+      <c r="L110" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M110" s="65"/>
+      <c r="M110" s="67"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="17">
@@ -6129,7 +6150,7 @@
         <v>24</v>
       </c>
       <c r="I111" s="52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J111" s="31" t="s">
         <v>26</v>
@@ -6138,10 +6159,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M17:Current1-Mon</v>
       </c>
-      <c r="L111" s="63" t="s">
+      <c r="L111" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M111" s="67" t="s">
+      <c r="M111" s="66" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6171,7 +6192,7 @@
         <v>24</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J112" s="26" t="s">
         <v>30</v>
@@ -6180,10 +6201,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H03M17:Current2-Mon</v>
       </c>
-      <c r="L112" s="64" t="s">
+      <c r="L112" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M112" s="67"/>
+      <c r="M112" s="66"/>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="17">
@@ -6211,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J113" s="31" t="s">
         <v>88</v>
@@ -6220,7 +6241,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-HeatSink-H03:PwrRevBot-Mon</v>
       </c>
-      <c r="L113" s="63" t="s">
+      <c r="L113" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M113" s="2" t="s">
@@ -6253,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J114" s="26" t="s">
         <v>91</v>
@@ -6262,7 +6283,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-HeatSink-H03:PwrFwdBot-Mon</v>
       </c>
-      <c r="L114" s="64" t="s">
+      <c r="L114" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M114" s="44" t="s">
@@ -6295,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J115" s="31" t="s">
         <v>93</v>
@@ -6304,7 +6325,7 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-HeatSink-H03:PwrRevTop-Mon</v>
       </c>
-      <c r="L115" s="63" t="s">
+      <c r="L115" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M115" s="2" t="s">
@@ -6337,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J116" s="37" t="s">
         <v>94</v>
@@ -6379,7 +6400,7 @@
         <v>24</v>
       </c>
       <c r="I117" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J117" s="31" t="s">
         <v>26</v>
@@ -6388,10 +6409,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M01:Current1-Mon</v>
       </c>
-      <c r="L117" s="63" t="s">
+      <c r="L117" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M117" s="66" t="s">
+      <c r="M117" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6421,7 +6442,7 @@
         <v>24</v>
       </c>
       <c r="I118" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J118" s="26" t="s">
         <v>30</v>
@@ -6430,10 +6451,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M01:Current2-Mon</v>
       </c>
-      <c r="L118" s="64" t="s">
+      <c r="L118" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M118" s="67"/>
+      <c r="M118" s="66"/>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="17">
@@ -6461,7 +6482,7 @@
         <v>24</v>
       </c>
       <c r="I119" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J119" s="31" t="s">
         <v>26</v>
@@ -6470,10 +6491,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M02:Current1-Mon</v>
       </c>
-      <c r="L119" s="63" t="s">
+      <c r="L119" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M119" s="65">
+      <c r="M119" s="67">
         <v>1</v>
       </c>
     </row>
@@ -6503,7 +6524,7 @@
         <v>24</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J120" s="26" t="s">
         <v>30</v>
@@ -6512,10 +6533,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M02:Current2-Mon</v>
       </c>
-      <c r="L120" s="64" t="s">
+      <c r="L120" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M120" s="65"/>
+      <c r="M120" s="67"/>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="17">
@@ -6543,7 +6564,7 @@
         <v>24</v>
       </c>
       <c r="I121" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J121" s="31" t="s">
         <v>26</v>
@@ -6552,10 +6573,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M03:Current1-Mon</v>
       </c>
-      <c r="L121" s="63" t="s">
+      <c r="L121" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M121" s="67">
+      <c r="M121" s="66">
         <v>2</v>
       </c>
     </row>
@@ -6585,7 +6606,7 @@
         <v>24</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J122" s="26" t="s">
         <v>30</v>
@@ -6594,10 +6615,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M03:Current2-Mon</v>
       </c>
-      <c r="L122" s="64" t="s">
+      <c r="L122" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M122" s="67"/>
+      <c r="M122" s="66"/>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="17">
@@ -6625,7 +6646,7 @@
         <v>24</v>
       </c>
       <c r="I123" s="52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J123" s="31" t="s">
         <v>26</v>
@@ -6634,10 +6655,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M04:Current1-Mon</v>
       </c>
-      <c r="L123" s="63" t="s">
+      <c r="L123" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M123" s="65">
+      <c r="M123" s="67">
         <v>3</v>
       </c>
     </row>
@@ -6667,7 +6688,7 @@
         <v>24</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J124" s="26" t="s">
         <v>30</v>
@@ -6676,10 +6697,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M04:Current2-Mon</v>
       </c>
-      <c r="L124" s="64" t="s">
+      <c r="L124" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M124" s="65"/>
+      <c r="M124" s="67"/>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="17">
@@ -6707,7 +6728,7 @@
         <v>24</v>
       </c>
       <c r="I125" s="52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J125" s="31" t="s">
         <v>26</v>
@@ -6716,10 +6737,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M05:Current1-Mon</v>
       </c>
-      <c r="L125" s="63" t="s">
+      <c r="L125" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M125" s="67">
+      <c r="M125" s="66">
         <v>4</v>
       </c>
     </row>
@@ -6749,7 +6770,7 @@
         <v>24</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J126" s="26" t="s">
         <v>30</v>
@@ -6758,10 +6779,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M05:Current2-Mon</v>
       </c>
-      <c r="L126" s="64" t="s">
+      <c r="L126" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M126" s="67"/>
+      <c r="M126" s="66"/>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="17">
@@ -6789,7 +6810,7 @@
         <v>24</v>
       </c>
       <c r="I127" s="52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J127" s="31" t="s">
         <v>26</v>
@@ -6798,10 +6819,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M06:Current1-Mon</v>
       </c>
-      <c r="L127" s="63" t="s">
+      <c r="L127" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M127" s="65">
+      <c r="M127" s="67">
         <v>5</v>
       </c>
     </row>
@@ -6831,7 +6852,7 @@
         <v>24</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J128" s="26" t="s">
         <v>30</v>
@@ -6840,10 +6861,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M06:Current2-Mon</v>
       </c>
-      <c r="L128" s="64" t="s">
+      <c r="L128" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M128" s="65"/>
+      <c r="M128" s="67"/>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="17">
@@ -6871,7 +6892,7 @@
         <v>24</v>
       </c>
       <c r="I129" s="52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J129" s="31" t="s">
         <v>26</v>
@@ -6880,10 +6901,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M07:Current1-Mon</v>
       </c>
-      <c r="L129" s="63" t="s">
+      <c r="L129" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M129" s="67">
+      <c r="M129" s="66">
         <v>6</v>
       </c>
     </row>
@@ -6913,7 +6934,7 @@
         <v>24</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J130" s="26" t="s">
         <v>30</v>
@@ -6922,10 +6943,10 @@
         <f t="shared" si="1"/>
         <v>RA-ToBO:RF-SSAmp-H04M07:Current2-Mon</v>
       </c>
-      <c r="L130" s="64" t="s">
+      <c r="L130" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M130" s="67"/>
+      <c r="M130" s="66"/>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="17">
@@ -6953,7 +6974,7 @@
         <v>24</v>
       </c>
       <c r="I131" s="52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J131" s="31" t="s">
         <v>26</v>
@@ -6962,10 +6983,10 @@
         <f t="shared" ref="K131:K194" si="2">E131 &amp; "-" &amp; F131 &amp;":" &amp; G131 &amp; "-" &amp; H131 &amp; "-" &amp; I131 &amp; ":" &amp; J131</f>
         <v>RA-ToBO:RF-SSAmp-H04M08:Current1-Mon</v>
       </c>
-      <c r="L131" s="63" t="s">
+      <c r="L131" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M131" s="65">
+      <c r="M131" s="67">
         <v>7</v>
       </c>
     </row>
@@ -6995,7 +7016,7 @@
         <v>24</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J132" s="26" t="s">
         <v>30</v>
@@ -7004,10 +7025,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M08:Current2-Mon</v>
       </c>
-      <c r="L132" s="64" t="s">
+      <c r="L132" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M132" s="65"/>
+      <c r="M132" s="67"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="17">
@@ -7035,7 +7056,7 @@
         <v>24</v>
       </c>
       <c r="I133" s="52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J133" s="31" t="s">
         <v>26</v>
@@ -7044,10 +7065,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M09:Current1-Mon</v>
       </c>
-      <c r="L133" s="63" t="s">
+      <c r="L133" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M133" s="67">
+      <c r="M133" s="66">
         <v>8</v>
       </c>
     </row>
@@ -7077,7 +7098,7 @@
         <v>24</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J134" s="26" t="s">
         <v>30</v>
@@ -7086,10 +7107,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M09:Current2-Mon</v>
       </c>
-      <c r="L134" s="64" t="s">
+      <c r="L134" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M134" s="67"/>
+      <c r="M134" s="66"/>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="17">
@@ -7117,7 +7138,7 @@
         <v>24</v>
       </c>
       <c r="I135" s="52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J135" s="31" t="s">
         <v>26</v>
@@ -7126,10 +7147,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M10:Current1-Mon</v>
       </c>
-      <c r="L135" s="63" t="s">
+      <c r="L135" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M135" s="65">
+      <c r="M135" s="67">
         <v>9</v>
       </c>
     </row>
@@ -7159,7 +7180,7 @@
         <v>24</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J136" s="26" t="s">
         <v>30</v>
@@ -7168,10 +7189,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M10:Current2-Mon</v>
       </c>
-      <c r="L136" s="64" t="s">
+      <c r="L136" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M136" s="65"/>
+      <c r="M136" s="67"/>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="17">
@@ -7199,19 +7220,19 @@
         <v>24</v>
       </c>
       <c r="I137" s="52" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J137" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K137" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>RA-ToBO:RF-SSAmp-H04M01:Current1-Mon</v>
-      </c>
-      <c r="L137" s="63" t="s">
+        <v>RA-ToBO:RF-SSAmp-H04M11:Current1-Mon</v>
+      </c>
+      <c r="L137" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M137" s="67">
+      <c r="M137" s="66">
         <v>10</v>
       </c>
     </row>
@@ -7241,19 +7262,19 @@
         <v>24</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J138" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K138" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>RA-ToBO:RF-SSAmp-H04M01:Current2-Mon</v>
-      </c>
-      <c r="L138" s="64" t="s">
+        <v>RA-ToBO:RF-SSAmp-H04M11:Current2-Mon</v>
+      </c>
+      <c r="L138" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M138" s="67"/>
+      <c r="M138" s="66"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="17">
@@ -7281,7 +7302,7 @@
         <v>24</v>
       </c>
       <c r="I139" s="52" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J139" s="31" t="s">
         <v>26</v>
@@ -7290,10 +7311,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M12:Current1-Mon</v>
       </c>
-      <c r="L139" s="63" t="s">
+      <c r="L139" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M139" s="65">
+      <c r="M139" s="67">
         <v>11</v>
       </c>
     </row>
@@ -7323,7 +7344,7 @@
         <v>24</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J140" s="26" t="s">
         <v>30</v>
@@ -7332,10 +7353,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M12:Current2-Mon</v>
       </c>
-      <c r="L140" s="64" t="s">
+      <c r="L140" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M140" s="65"/>
+      <c r="M140" s="67"/>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="17">
@@ -7363,7 +7384,7 @@
         <v>24</v>
       </c>
       <c r="I141" s="52" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J141" s="31" t="s">
         <v>26</v>
@@ -7372,10 +7393,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M13:Current1-Mon</v>
       </c>
-      <c r="L141" s="63" t="s">
+      <c r="L141" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M141" s="67">
+      <c r="M141" s="66">
         <v>12</v>
       </c>
     </row>
@@ -7405,7 +7426,7 @@
         <v>24</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J142" s="26" t="s">
         <v>30</v>
@@ -7414,10 +7435,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M13:Current2-Mon</v>
       </c>
-      <c r="L142" s="64" t="s">
+      <c r="L142" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M142" s="67"/>
+      <c r="M142" s="66"/>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="17">
@@ -7445,7 +7466,7 @@
         <v>24</v>
       </c>
       <c r="I143" s="52" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J143" s="31" t="s">
         <v>26</v>
@@ -7454,10 +7475,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M14:Current1-Mon</v>
       </c>
-      <c r="L143" s="63" t="s">
+      <c r="L143" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M143" s="65">
+      <c r="M143" s="67">
         <v>13</v>
       </c>
     </row>
@@ -7487,7 +7508,7 @@
         <v>24</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J144" s="26" t="s">
         <v>30</v>
@@ -7496,10 +7517,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M14:Current2-Mon</v>
       </c>
-      <c r="L144" s="64" t="s">
+      <c r="L144" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M144" s="65"/>
+      <c r="M144" s="67"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="17">
@@ -7527,7 +7548,7 @@
         <v>24</v>
       </c>
       <c r="I145" s="52" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J145" s="31" t="s">
         <v>26</v>
@@ -7536,10 +7557,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M15:Current1-Mon</v>
       </c>
-      <c r="L145" s="63" t="s">
+      <c r="L145" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M145" s="67">
+      <c r="M145" s="66">
         <v>14</v>
       </c>
     </row>
@@ -7569,7 +7590,7 @@
         <v>24</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J146" s="26" t="s">
         <v>30</v>
@@ -7578,10 +7599,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M15:Current2-Mon</v>
       </c>
-      <c r="L146" s="64" t="s">
+      <c r="L146" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M146" s="67"/>
+      <c r="M146" s="66"/>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="17">
@@ -7609,7 +7630,7 @@
         <v>24</v>
       </c>
       <c r="I147" s="52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J147" s="31" t="s">
         <v>26</v>
@@ -7618,10 +7639,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M16:Current1-Mon</v>
       </c>
-      <c r="L147" s="63" t="s">
+      <c r="L147" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M147" s="65">
+      <c r="M147" s="67">
         <v>15</v>
       </c>
     </row>
@@ -7651,7 +7672,7 @@
         <v>24</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J148" s="26" t="s">
         <v>30</v>
@@ -7660,10 +7681,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M16:Current2-Mon</v>
       </c>
-      <c r="L148" s="64" t="s">
+      <c r="L148" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M148" s="65"/>
+      <c r="M148" s="67"/>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="17">
@@ -7691,7 +7712,7 @@
         <v>24</v>
       </c>
       <c r="I149" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J149" s="31" t="s">
         <v>26</v>
@@ -7700,10 +7721,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M17:Current1-Mon</v>
       </c>
-      <c r="L149" s="63" t="s">
+      <c r="L149" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M149" s="67">
+      <c r="M149" s="66">
         <v>16</v>
       </c>
     </row>
@@ -7733,7 +7754,7 @@
         <v>24</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J150" s="26" t="s">
         <v>30</v>
@@ -7742,10 +7763,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H04M17:Current2-Mon</v>
       </c>
-      <c r="L150" s="64" t="s">
+      <c r="L150" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M150" s="67"/>
+      <c r="M150" s="66"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="17">
@@ -7773,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J151" s="31" t="s">
         <v>88</v>
@@ -7782,7 +7803,7 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-HeatSink-H04:PwrRevBot-Mon</v>
       </c>
-      <c r="L151" s="63" t="s">
+      <c r="L151" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M151" s="2" t="s">
@@ -7815,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J152" s="26" t="s">
         <v>91</v>
@@ -7824,7 +7845,7 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-HeatSink-H04:PwrFwdBot-Mon</v>
       </c>
-      <c r="L152" s="64" t="s">
+      <c r="L152" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M152" s="44" t="s">
@@ -7857,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="I153" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J153" s="31" t="s">
         <v>93</v>
@@ -7866,7 +7887,7 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-HeatSink-H04:PwrRevTop-Mon</v>
       </c>
-      <c r="L153" s="63" t="s">
+      <c r="L153" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M153" s="2" t="s">
@@ -7899,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="I154" s="37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J154" s="37" t="s">
         <v>94</v>
@@ -7941,7 +7962,7 @@
         <v>24</v>
       </c>
       <c r="I155" s="31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J155" s="31" t="s">
         <v>26</v>
@@ -7950,10 +7971,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M01:Current1-Mon</v>
       </c>
-      <c r="L155" s="63" t="s">
+      <c r="L155" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M155" s="66" t="s">
+      <c r="M155" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7983,7 +8004,7 @@
         <v>24</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J156" s="26" t="s">
         <v>30</v>
@@ -7992,10 +8013,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M01:Current2-Mon</v>
       </c>
-      <c r="L156" s="64" t="s">
+      <c r="L156" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M156" s="67"/>
+      <c r="M156" s="66"/>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="17">
@@ -8023,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="I157" s="31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J157" s="31" t="s">
         <v>26</v>
@@ -8032,10 +8053,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M02:Current1-Mon</v>
       </c>
-      <c r="L157" s="63" t="s">
+      <c r="L157" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M157" s="65">
+      <c r="M157" s="67">
         <v>1</v>
       </c>
     </row>
@@ -8065,7 +8086,7 @@
         <v>24</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J158" s="26" t="s">
         <v>30</v>
@@ -8074,10 +8095,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M02:Current2-Mon</v>
       </c>
-      <c r="L158" s="64" t="s">
+      <c r="L158" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M158" s="65"/>
+      <c r="M158" s="67"/>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="17">
@@ -8105,7 +8126,7 @@
         <v>24</v>
       </c>
       <c r="I159" s="52" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J159" s="31" t="s">
         <v>26</v>
@@ -8114,10 +8135,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M03:Current1-Mon</v>
       </c>
-      <c r="L159" s="63" t="s">
+      <c r="L159" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M159" s="67">
+      <c r="M159" s="66">
         <v>2</v>
       </c>
     </row>
@@ -8147,7 +8168,7 @@
         <v>24</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J160" s="26" t="s">
         <v>30</v>
@@ -8156,10 +8177,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M03:Current2-Mon</v>
       </c>
-      <c r="L160" s="64" t="s">
+      <c r="L160" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M160" s="67"/>
+      <c r="M160" s="66"/>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="17">
@@ -8187,7 +8208,7 @@
         <v>24</v>
       </c>
       <c r="I161" s="52" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J161" s="31" t="s">
         <v>26</v>
@@ -8196,10 +8217,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M04:Current1-Mon</v>
       </c>
-      <c r="L161" s="63" t="s">
+      <c r="L161" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M161" s="65">
+      <c r="M161" s="67">
         <v>3</v>
       </c>
     </row>
@@ -8229,7 +8250,7 @@
         <v>24</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J162" s="26" t="s">
         <v>30</v>
@@ -8238,10 +8259,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M04:Current2-Mon</v>
       </c>
-      <c r="L162" s="64" t="s">
+      <c r="L162" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M162" s="65"/>
+      <c r="M162" s="67"/>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="17">
@@ -8269,7 +8290,7 @@
         <v>24</v>
       </c>
       <c r="I163" s="52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J163" s="31" t="s">
         <v>26</v>
@@ -8278,10 +8299,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M05:Current1-Mon</v>
       </c>
-      <c r="L163" s="63" t="s">
+      <c r="L163" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M163" s="67">
+      <c r="M163" s="66">
         <v>4</v>
       </c>
     </row>
@@ -8311,7 +8332,7 @@
         <v>24</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J164" s="26" t="s">
         <v>30</v>
@@ -8320,10 +8341,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M05:Current2-Mon</v>
       </c>
-      <c r="L164" s="64" t="s">
+      <c r="L164" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M164" s="67"/>
+      <c r="M164" s="66"/>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="17">
@@ -8351,7 +8372,7 @@
         <v>24</v>
       </c>
       <c r="I165" s="52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J165" s="31" t="s">
         <v>26</v>
@@ -8360,10 +8381,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M06:Current1-Mon</v>
       </c>
-      <c r="L165" s="63" t="s">
+      <c r="L165" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M165" s="65">
+      <c r="M165" s="67">
         <v>5</v>
       </c>
     </row>
@@ -8393,7 +8414,7 @@
         <v>24</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J166" s="26" t="s">
         <v>30</v>
@@ -8402,10 +8423,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M06:Current2-Mon</v>
       </c>
-      <c r="L166" s="64" t="s">
+      <c r="L166" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M166" s="65"/>
+      <c r="M166" s="67"/>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="17">
@@ -8433,7 +8454,7 @@
         <v>24</v>
       </c>
       <c r="I167" s="52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J167" s="31" t="s">
         <v>26</v>
@@ -8442,10 +8463,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M07:Current1-Mon</v>
       </c>
-      <c r="L167" s="63" t="s">
+      <c r="L167" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M167" s="67">
+      <c r="M167" s="66">
         <v>6</v>
       </c>
     </row>
@@ -8475,7 +8496,7 @@
         <v>24</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J168" s="26" t="s">
         <v>30</v>
@@ -8484,10 +8505,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M07:Current2-Mon</v>
       </c>
-      <c r="L168" s="64" t="s">
+      <c r="L168" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M168" s="67"/>
+      <c r="M168" s="66"/>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="17">
@@ -8515,7 +8536,7 @@
         <v>24</v>
       </c>
       <c r="I169" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J169" s="31" t="s">
         <v>26</v>
@@ -8524,10 +8545,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M08:Current1-Mon</v>
       </c>
-      <c r="L169" s="63" t="s">
+      <c r="L169" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M169" s="65">
+      <c r="M169" s="67">
         <v>7</v>
       </c>
     </row>
@@ -8557,7 +8578,7 @@
         <v>24</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J170" s="26" t="s">
         <v>30</v>
@@ -8566,10 +8587,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M08:Current2-Mon</v>
       </c>
-      <c r="L170" s="64" t="s">
+      <c r="L170" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M170" s="65"/>
+      <c r="M170" s="67"/>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="17">
@@ -8597,7 +8618,7 @@
         <v>24</v>
       </c>
       <c r="I171" s="52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J171" s="31" t="s">
         <v>26</v>
@@ -8606,10 +8627,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M09:Current1-Mon</v>
       </c>
-      <c r="L171" s="63" t="s">
+      <c r="L171" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M171" s="67">
+      <c r="M171" s="66">
         <v>8</v>
       </c>
     </row>
@@ -8639,7 +8660,7 @@
         <v>24</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J172" s="26" t="s">
         <v>30</v>
@@ -8648,10 +8669,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M09:Current2-Mon</v>
       </c>
-      <c r="L172" s="64" t="s">
+      <c r="L172" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M172" s="67"/>
+      <c r="M172" s="66"/>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="17">
@@ -8679,7 +8700,7 @@
         <v>24</v>
       </c>
       <c r="I173" s="52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J173" s="31" t="s">
         <v>26</v>
@@ -8688,10 +8709,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M10:Current1-Mon</v>
       </c>
-      <c r="L173" s="63" t="s">
+      <c r="L173" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M173" s="65">
+      <c r="M173" s="67">
         <v>9</v>
       </c>
     </row>
@@ -8721,7 +8742,7 @@
         <v>24</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J174" s="26" t="s">
         <v>30</v>
@@ -8730,10 +8751,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M10:Current2-Mon</v>
       </c>
-      <c r="L174" s="64" t="s">
+      <c r="L174" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M174" s="65"/>
+      <c r="M174" s="67"/>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="17">
@@ -8761,19 +8782,19 @@
         <v>24</v>
       </c>
       <c r="I175" s="52" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J175" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K175" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>RA-ToBO:RF-SSAmp-H05M01:Current1-Mon</v>
-      </c>
-      <c r="L175" s="63" t="s">
+        <v>RA-ToBO:RF-SSAmp-H05M11:Current1-Mon</v>
+      </c>
+      <c r="L175" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M175" s="67">
+      <c r="M175" s="66">
         <v>10</v>
       </c>
     </row>
@@ -8803,19 +8824,19 @@
         <v>24</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J176" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K176" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>RA-ToBO:RF-SSAmp-H05M01:Current2-Mon</v>
-      </c>
-      <c r="L176" s="64" t="s">
+        <v>RA-ToBO:RF-SSAmp-H05M11:Current2-Mon</v>
+      </c>
+      <c r="L176" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M176" s="67"/>
+      <c r="M176" s="66"/>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="17">
@@ -8843,7 +8864,7 @@
         <v>24</v>
       </c>
       <c r="I177" s="52" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J177" s="31" t="s">
         <v>26</v>
@@ -8852,10 +8873,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M12:Current1-Mon</v>
       </c>
-      <c r="L177" s="63" t="s">
+      <c r="L177" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M177" s="65">
+      <c r="M177" s="67">
         <v>11</v>
       </c>
     </row>
@@ -8885,7 +8906,7 @@
         <v>24</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J178" s="26" t="s">
         <v>30</v>
@@ -8894,10 +8915,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M12:Current2-Mon</v>
       </c>
-      <c r="L178" s="64" t="s">
+      <c r="L178" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M178" s="65"/>
+      <c r="M178" s="67"/>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="17">
@@ -8925,7 +8946,7 @@
         <v>24</v>
       </c>
       <c r="I179" s="52" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J179" s="31" t="s">
         <v>26</v>
@@ -8934,10 +8955,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M13:Current1-Mon</v>
       </c>
-      <c r="L179" s="63" t="s">
+      <c r="L179" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M179" s="67">
+      <c r="M179" s="66">
         <v>12</v>
       </c>
     </row>
@@ -8967,7 +8988,7 @@
         <v>24</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J180" s="26" t="s">
         <v>30</v>
@@ -8976,10 +8997,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M13:Current2-Mon</v>
       </c>
-      <c r="L180" s="64" t="s">
+      <c r="L180" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M180" s="67"/>
+      <c r="M180" s="66"/>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="17">
@@ -9007,7 +9028,7 @@
         <v>24</v>
       </c>
       <c r="I181" s="52" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J181" s="31" t="s">
         <v>26</v>
@@ -9016,10 +9037,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M14:Current1-Mon</v>
       </c>
-      <c r="L181" s="63" t="s">
+      <c r="L181" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M181" s="65">
+      <c r="M181" s="67">
         <v>13</v>
       </c>
     </row>
@@ -9049,7 +9070,7 @@
         <v>24</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J182" s="26" t="s">
         <v>30</v>
@@ -9058,10 +9079,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M14:Current2-Mon</v>
       </c>
-      <c r="L182" s="64" t="s">
+      <c r="L182" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M182" s="65"/>
+      <c r="M182" s="67"/>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="17">
@@ -9089,7 +9110,7 @@
         <v>24</v>
       </c>
       <c r="I183" s="52" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J183" s="31" t="s">
         <v>26</v>
@@ -9098,10 +9119,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M15:Current1-Mon</v>
       </c>
-      <c r="L183" s="63" t="s">
+      <c r="L183" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M183" s="67">
+      <c r="M183" s="66">
         <v>14</v>
       </c>
     </row>
@@ -9131,7 +9152,7 @@
         <v>24</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J184" s="26" t="s">
         <v>30</v>
@@ -9140,10 +9161,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M15:Current2-Mon</v>
       </c>
-      <c r="L184" s="64" t="s">
+      <c r="L184" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M184" s="67"/>
+      <c r="M184" s="66"/>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="17">
@@ -9171,7 +9192,7 @@
         <v>24</v>
       </c>
       <c r="I185" s="52" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J185" s="31" t="s">
         <v>26</v>
@@ -9180,10 +9201,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M16:Current1-Mon</v>
       </c>
-      <c r="L185" s="63" t="s">
+      <c r="L185" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M185" s="65">
+      <c r="M185" s="67">
         <v>15</v>
       </c>
     </row>
@@ -9213,7 +9234,7 @@
         <v>24</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J186" s="26" t="s">
         <v>30</v>
@@ -9222,10 +9243,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M16:Current2-Mon</v>
       </c>
-      <c r="L186" s="64" t="s">
+      <c r="L186" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M186" s="65"/>
+      <c r="M186" s="67"/>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="17">
@@ -9253,7 +9274,7 @@
         <v>24</v>
       </c>
       <c r="I187" s="52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J187" s="31" t="s">
         <v>26</v>
@@ -9262,10 +9283,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M17:Current1-Mon</v>
       </c>
-      <c r="L187" s="63" t="s">
+      <c r="L187" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M187" s="67">
+      <c r="M187" s="66">
         <v>16</v>
       </c>
     </row>
@@ -9295,7 +9316,7 @@
         <v>24</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J188" s="26" t="s">
         <v>30</v>
@@ -9304,10 +9325,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H05M17:Current2-Mon</v>
       </c>
-      <c r="L188" s="64" t="s">
+      <c r="L188" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M188" s="67"/>
+      <c r="M188" s="66"/>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="17">
@@ -9335,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="31" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J189" s="31" t="s">
         <v>88</v>
@@ -9344,7 +9365,7 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-HeatSink-H05:PwrRevBot-Mon</v>
       </c>
-      <c r="L189" s="63" t="s">
+      <c r="L189" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M189" s="2" t="s">
@@ -9377,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J190" s="26" t="s">
         <v>91</v>
@@ -9386,7 +9407,7 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-HeatSink-H05:PwrFwdBot-Mon</v>
       </c>
-      <c r="L190" s="64" t="s">
+      <c r="L190" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M190" s="44" t="s">
@@ -9419,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="31" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J191" s="31" t="s">
         <v>93</v>
@@ -9428,7 +9449,7 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-HeatSink-H05:PwrRevTop-Mon</v>
       </c>
-      <c r="L191" s="63" t="s">
+      <c r="L191" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M191" s="2" t="s">
@@ -9461,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J192" s="37" t="s">
         <v>94</v>
@@ -9503,7 +9524,7 @@
         <v>24</v>
       </c>
       <c r="I193" s="31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J193" s="31" t="s">
         <v>26</v>
@@ -9512,10 +9533,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H06M01:Current1-Mon</v>
       </c>
-      <c r="L193" s="63" t="s">
+      <c r="L193" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M193" s="67">
+      <c r="M193" s="66">
         <v>1</v>
       </c>
     </row>
@@ -9545,7 +9566,7 @@
         <v>24</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J194" s="26" t="s">
         <v>30</v>
@@ -9554,10 +9575,10 @@
         <f t="shared" si="2"/>
         <v>RA-ToBO:RF-SSAmp-H06M01:Current2-Mon</v>
       </c>
-      <c r="L194" s="64" t="s">
+      <c r="L194" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M194" s="67"/>
+      <c r="M194" s="66"/>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="17">
@@ -9585,7 +9606,7 @@
         <v>24</v>
       </c>
       <c r="I195" s="31" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J195" s="31" t="s">
         <v>26</v>
@@ -9594,10 +9615,10 @@
         <f t="shared" ref="K195:K258" si="3">E195 &amp; "-" &amp; F195 &amp;":" &amp; G195 &amp; "-" &amp; H195 &amp; "-" &amp; I195 &amp; ":" &amp; J195</f>
         <v>RA-ToBO:RF-SSAmp-H06M02:Current1-Mon</v>
       </c>
-      <c r="L195" s="63" t="s">
+      <c r="L195" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M195" s="65">
+      <c r="M195" s="67">
         <v>2</v>
       </c>
     </row>
@@ -9627,7 +9648,7 @@
         <v>24</v>
       </c>
       <c r="I196" s="26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J196" s="26" t="s">
         <v>30</v>
@@ -9636,10 +9657,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M02:Current2-Mon</v>
       </c>
-      <c r="L196" s="64" t="s">
+      <c r="L196" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M196" s="65"/>
+      <c r="M196" s="67"/>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="17">
@@ -9667,7 +9688,7 @@
         <v>24</v>
       </c>
       <c r="I197" s="31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J197" s="31" t="s">
         <v>26</v>
@@ -9676,10 +9697,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M03:Current1-Mon</v>
       </c>
-      <c r="L197" s="63" t="s">
+      <c r="L197" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M197" s="67">
+      <c r="M197" s="66">
         <v>3</v>
       </c>
     </row>
@@ -9709,7 +9730,7 @@
         <v>24</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J198" s="26" t="s">
         <v>30</v>
@@ -9718,10 +9739,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M03:Current2-Mon</v>
       </c>
-      <c r="L198" s="64" t="s">
+      <c r="L198" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M198" s="67"/>
+      <c r="M198" s="66"/>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="17">
@@ -9749,7 +9770,7 @@
         <v>24</v>
       </c>
       <c r="I199" s="52" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J199" s="31" t="s">
         <v>26</v>
@@ -9758,10 +9779,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M04:Current1-Mon</v>
       </c>
-      <c r="L199" s="63" t="s">
+      <c r="L199" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M199" s="65">
+      <c r="M199" s="67">
         <v>4</v>
       </c>
     </row>
@@ -9791,7 +9812,7 @@
         <v>24</v>
       </c>
       <c r="I200" s="26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J200" s="26" t="s">
         <v>30</v>
@@ -9800,10 +9821,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M04:Current2-Mon</v>
       </c>
-      <c r="L200" s="64" t="s">
+      <c r="L200" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M200" s="65"/>
+      <c r="M200" s="67"/>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="17">
@@ -9831,7 +9852,7 @@
         <v>24</v>
       </c>
       <c r="I201" s="52" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J201" s="31" t="s">
         <v>26</v>
@@ -9840,10 +9861,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M05:Current1-Mon</v>
       </c>
-      <c r="L201" s="63" t="s">
+      <c r="L201" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M201" s="67">
+      <c r="M201" s="66">
         <v>5</v>
       </c>
     </row>
@@ -9873,7 +9894,7 @@
         <v>24</v>
       </c>
       <c r="I202" s="26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J202" s="26" t="s">
         <v>30</v>
@@ -9882,10 +9903,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M05:Current2-Mon</v>
       </c>
-      <c r="L202" s="64" t="s">
+      <c r="L202" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M202" s="67"/>
+      <c r="M202" s="66"/>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="17">
@@ -9913,7 +9934,7 @@
         <v>24</v>
       </c>
       <c r="I203" s="52" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J203" s="31" t="s">
         <v>26</v>
@@ -9922,10 +9943,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M06:Current1-Mon</v>
       </c>
-      <c r="L203" s="63" t="s">
+      <c r="L203" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M203" s="65">
+      <c r="M203" s="67">
         <v>6</v>
       </c>
     </row>
@@ -9955,7 +9976,7 @@
         <v>24</v>
       </c>
       <c r="I204" s="26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J204" s="26" t="s">
         <v>30</v>
@@ -9964,10 +9985,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M06:Current2-Mon</v>
       </c>
-      <c r="L204" s="64" t="s">
+      <c r="L204" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M204" s="65"/>
+      <c r="M204" s="67"/>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="17">
@@ -9995,7 +10016,7 @@
         <v>24</v>
       </c>
       <c r="I205" s="52" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J205" s="31" t="s">
         <v>26</v>
@@ -10004,10 +10025,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M07:Current1-Mon</v>
       </c>
-      <c r="L205" s="63" t="s">
+      <c r="L205" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M205" s="67">
+      <c r="M205" s="66">
         <v>7</v>
       </c>
     </row>
@@ -10037,7 +10058,7 @@
         <v>24</v>
       </c>
       <c r="I206" s="26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J206" s="26" t="s">
         <v>30</v>
@@ -10046,10 +10067,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M07:Current2-Mon</v>
       </c>
-      <c r="L206" s="64" t="s">
+      <c r="L206" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M206" s="67"/>
+      <c r="M206" s="66"/>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="17">
@@ -10077,7 +10098,7 @@
         <v>24</v>
       </c>
       <c r="I207" s="52" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J207" s="31" t="s">
         <v>26</v>
@@ -10086,10 +10107,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M08:Current1-Mon</v>
       </c>
-      <c r="L207" s="63" t="s">
+      <c r="L207" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M207" s="65">
+      <c r="M207" s="67">
         <v>8</v>
       </c>
     </row>
@@ -10119,7 +10140,7 @@
         <v>24</v>
       </c>
       <c r="I208" s="26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J208" s="26" t="s">
         <v>30</v>
@@ -10128,10 +10149,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M08:Current2-Mon</v>
       </c>
-      <c r="L208" s="64" t="s">
+      <c r="L208" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M208" s="65"/>
+      <c r="M208" s="67"/>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="17">
@@ -10159,7 +10180,7 @@
         <v>24</v>
       </c>
       <c r="I209" s="52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J209" s="31" t="s">
         <v>26</v>
@@ -10168,10 +10189,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M09:Current1-Mon</v>
       </c>
-      <c r="L209" s="63" t="s">
+      <c r="L209" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M209" s="67">
+      <c r="M209" s="66">
         <v>9</v>
       </c>
     </row>
@@ -10201,7 +10222,7 @@
         <v>24</v>
       </c>
       <c r="I210" s="26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J210" s="26" t="s">
         <v>30</v>
@@ -10210,10 +10231,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M09:Current2-Mon</v>
       </c>
-      <c r="L210" s="64" t="s">
+      <c r="L210" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M210" s="67"/>
+      <c r="M210" s="66"/>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="17">
@@ -10241,7 +10262,7 @@
         <v>24</v>
       </c>
       <c r="I211" s="52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J211" s="31" t="s">
         <v>26</v>
@@ -10250,10 +10271,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M10:Current1-Mon</v>
       </c>
-      <c r="L211" s="63" t="s">
+      <c r="L211" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M211" s="65">
+      <c r="M211" s="67">
         <v>10</v>
       </c>
     </row>
@@ -10283,7 +10304,7 @@
         <v>24</v>
       </c>
       <c r="I212" s="26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J212" s="26" t="s">
         <v>30</v>
@@ -10292,10 +10313,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M10:Current2-Mon</v>
       </c>
-      <c r="L212" s="64" t="s">
+      <c r="L212" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M212" s="65"/>
+      <c r="M212" s="67"/>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="17">
@@ -10323,19 +10344,19 @@
         <v>24</v>
       </c>
       <c r="I213" s="52" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J213" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K213" s="49" t="str">
         <f t="shared" si="3"/>
-        <v>RA-ToBO:RF-SSAmp-H06M01:Current1-Mon</v>
-      </c>
-      <c r="L213" s="63" t="s">
+        <v>RA-ToBO:RF-SSAmp-H06M11:Current1-Mon</v>
+      </c>
+      <c r="L213" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M213" s="67">
+      <c r="M213" s="66">
         <v>11</v>
       </c>
     </row>
@@ -10365,19 +10386,19 @@
         <v>24</v>
       </c>
       <c r="I214" s="26" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J214" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K214" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>RA-ToBO:RF-SSAmp-H06M01:Current2-Mon</v>
-      </c>
-      <c r="L214" s="64" t="s">
+        <v>RA-ToBO:RF-SSAmp-H06M11:Current2-Mon</v>
+      </c>
+      <c r="L214" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M214" s="67"/>
+      <c r="M214" s="66"/>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="17">
@@ -10405,7 +10426,7 @@
         <v>24</v>
       </c>
       <c r="I215" s="52" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J215" s="31" t="s">
         <v>26</v>
@@ -10414,10 +10435,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M12:Current1-Mon</v>
       </c>
-      <c r="L215" s="63" t="s">
+      <c r="L215" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M215" s="65">
+      <c r="M215" s="67">
         <v>12</v>
       </c>
     </row>
@@ -10447,7 +10468,7 @@
         <v>24</v>
       </c>
       <c r="I216" s="26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J216" s="26" t="s">
         <v>30</v>
@@ -10456,10 +10477,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M12:Current2-Mon</v>
       </c>
-      <c r="L216" s="64" t="s">
+      <c r="L216" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M216" s="65"/>
+      <c r="M216" s="67"/>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="17">
@@ -10487,7 +10508,7 @@
         <v>24</v>
       </c>
       <c r="I217" s="52" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J217" s="31" t="s">
         <v>26</v>
@@ -10496,10 +10517,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M13:Current1-Mon</v>
       </c>
-      <c r="L217" s="63" t="s">
+      <c r="L217" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M217" s="67">
+      <c r="M217" s="66">
         <v>13</v>
       </c>
     </row>
@@ -10529,7 +10550,7 @@
         <v>24</v>
       </c>
       <c r="I218" s="26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J218" s="26" t="s">
         <v>30</v>
@@ -10538,10 +10559,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M13:Current2-Mon</v>
       </c>
-      <c r="L218" s="64" t="s">
+      <c r="L218" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M218" s="67"/>
+      <c r="M218" s="66"/>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="17">
@@ -10569,7 +10590,7 @@
         <v>24</v>
       </c>
       <c r="I219" s="52" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J219" s="31" t="s">
         <v>26</v>
@@ -10578,10 +10599,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M14:Current1-Mon</v>
       </c>
-      <c r="L219" s="63" t="s">
+      <c r="L219" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M219" s="65">
+      <c r="M219" s="67">
         <v>14</v>
       </c>
     </row>
@@ -10611,7 +10632,7 @@
         <v>24</v>
       </c>
       <c r="I220" s="26" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J220" s="26" t="s">
         <v>30</v>
@@ -10620,10 +10641,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M14:Current2-Mon</v>
       </c>
-      <c r="L220" s="64" t="s">
+      <c r="L220" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M220" s="65"/>
+      <c r="M220" s="67"/>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="17">
@@ -10651,7 +10672,7 @@
         <v>24</v>
       </c>
       <c r="I221" s="52" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J221" s="31" t="s">
         <v>26</v>
@@ -10660,10 +10681,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M15:Current1-Mon</v>
       </c>
-      <c r="L221" s="63" t="s">
+      <c r="L221" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M221" s="67">
+      <c r="M221" s="66">
         <v>15</v>
       </c>
     </row>
@@ -10693,7 +10714,7 @@
         <v>24</v>
       </c>
       <c r="I222" s="26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J222" s="26" t="s">
         <v>30</v>
@@ -10702,10 +10723,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M15:Current2-Mon</v>
       </c>
-      <c r="L222" s="64" t="s">
+      <c r="L222" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M222" s="67"/>
+      <c r="M222" s="66"/>
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="17">
@@ -10733,7 +10754,7 @@
         <v>24</v>
       </c>
       <c r="I223" s="52" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J223" s="31" t="s">
         <v>26</v>
@@ -10742,10 +10763,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M16:Current1-Mon</v>
       </c>
-      <c r="L223" s="63" t="s">
+      <c r="L223" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M223" s="65">
+      <c r="M223" s="67">
         <v>16</v>
       </c>
     </row>
@@ -10775,7 +10796,7 @@
         <v>24</v>
       </c>
       <c r="I224" s="26" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J224" s="26" t="s">
         <v>30</v>
@@ -10784,10 +10805,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M16:Current2-Mon</v>
       </c>
-      <c r="L224" s="64" t="s">
+      <c r="L224" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M224" s="65"/>
+      <c r="M224" s="67"/>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="17">
@@ -10815,7 +10836,7 @@
         <v>24</v>
       </c>
       <c r="I225" s="52" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J225" s="31" t="s">
         <v>26</v>
@@ -10824,10 +10845,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M17:Current1-Mon</v>
       </c>
-      <c r="L225" s="63" t="s">
+      <c r="L225" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M225" s="67" t="s">
+      <c r="M225" s="66" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10857,7 +10878,7 @@
         <v>24</v>
       </c>
       <c r="I226" s="26" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J226" s="26" t="s">
         <v>30</v>
@@ -10866,10 +10887,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H06M17:Current2-Mon</v>
       </c>
-      <c r="L226" s="64" t="s">
+      <c r="L226" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M226" s="67"/>
+      <c r="M226" s="66"/>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="17">
@@ -10897,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="I227" s="31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J227" s="31" t="s">
         <v>88</v>
@@ -10906,7 +10927,7 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-HeatSink-H06:PwrRevBot-Mon</v>
       </c>
-      <c r="L227" s="63" t="s">
+      <c r="L227" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M227" s="2" t="s">
@@ -10939,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="I228" s="26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J228" s="26" t="s">
         <v>91</v>
@@ -10948,7 +10969,7 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-HeatSink-H06:PwrFwdBot-Mon</v>
       </c>
-      <c r="L228" s="64" t="s">
+      <c r="L228" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M228" s="44" t="s">
@@ -10981,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="I229" s="31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J229" s="31" t="s">
         <v>93</v>
@@ -10990,7 +11011,7 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-HeatSink-H06:PwrRevTop-Mon</v>
       </c>
-      <c r="L229" s="63" t="s">
+      <c r="L229" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M229" s="2" t="s">
@@ -11023,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="I230" s="37" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J230" s="37" t="s">
         <v>94</v>
@@ -11065,7 +11086,7 @@
         <v>24</v>
       </c>
       <c r="I231" s="31" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J231" s="31" t="s">
         <v>26</v>
@@ -11074,10 +11095,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M01:Current1-Mon</v>
       </c>
-      <c r="L231" s="63" t="s">
+      <c r="L231" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M231" s="66" t="s">
+      <c r="M231" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11107,7 +11128,7 @@
         <v>24</v>
       </c>
       <c r="I232" s="26" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J232" s="26" t="s">
         <v>30</v>
@@ -11116,10 +11137,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M01:Current2-Mon</v>
       </c>
-      <c r="L232" s="64" t="s">
+      <c r="L232" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M232" s="67"/>
+      <c r="M232" s="66"/>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="17">
@@ -11147,7 +11168,7 @@
         <v>24</v>
       </c>
       <c r="I233" s="31" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J233" s="31" t="s">
         <v>26</v>
@@ -11156,10 +11177,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M02:Current1-Mon</v>
       </c>
-      <c r="L233" s="63" t="s">
+      <c r="L233" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M233" s="65" t="s">
+      <c r="M233" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11189,7 +11210,7 @@
         <v>24</v>
       </c>
       <c r="I234" s="26" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J234" s="26" t="s">
         <v>30</v>
@@ -11198,10 +11219,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M02:Current2-Mon</v>
       </c>
-      <c r="L234" s="64" t="s">
+      <c r="L234" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M234" s="65"/>
+      <c r="M234" s="67"/>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="17">
@@ -11229,7 +11250,7 @@
         <v>24</v>
       </c>
       <c r="I235" s="52" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J235" s="31" t="s">
         <v>26</v>
@@ -11238,10 +11259,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M03:Current1-Mon</v>
       </c>
-      <c r="L235" s="63" t="s">
+      <c r="L235" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M235" s="66" t="s">
+      <c r="M235" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11271,7 +11292,7 @@
         <v>24</v>
       </c>
       <c r="I236" s="26" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J236" s="26" t="s">
         <v>30</v>
@@ -11280,10 +11301,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M03:Current2-Mon</v>
       </c>
-      <c r="L236" s="64" t="s">
+      <c r="L236" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M236" s="67"/>
+      <c r="M236" s="66"/>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="17">
@@ -11311,7 +11332,7 @@
         <v>24</v>
       </c>
       <c r="I237" s="52" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J237" s="31" t="s">
         <v>26</v>
@@ -11320,10 +11341,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M04:Current1-Mon</v>
       </c>
-      <c r="L237" s="63" t="s">
+      <c r="L237" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M237" s="65" t="s">
+      <c r="M237" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11353,7 +11374,7 @@
         <v>24</v>
       </c>
       <c r="I238" s="26" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J238" s="26" t="s">
         <v>30</v>
@@ -11362,10 +11383,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M04:Current2-Mon</v>
       </c>
-      <c r="L238" s="64" t="s">
+      <c r="L238" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M238" s="65"/>
+      <c r="M238" s="67"/>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="17">
@@ -11393,7 +11414,7 @@
         <v>24</v>
       </c>
       <c r="I239" s="52" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J239" s="31" t="s">
         <v>26</v>
@@ -11402,10 +11423,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M05:Current1-Mon</v>
       </c>
-      <c r="L239" s="63" t="s">
+      <c r="L239" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M239" s="66" t="s">
+      <c r="M239" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11435,7 +11456,7 @@
         <v>24</v>
       </c>
       <c r="I240" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J240" s="26" t="s">
         <v>30</v>
@@ -11444,10 +11465,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M05:Current2-Mon</v>
       </c>
-      <c r="L240" s="64" t="s">
+      <c r="L240" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M240" s="67"/>
+      <c r="M240" s="66"/>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="17">
@@ -11475,7 +11496,7 @@
         <v>24</v>
       </c>
       <c r="I241" s="52" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J241" s="31" t="s">
         <v>26</v>
@@ -11484,10 +11505,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M06:Current1-Mon</v>
       </c>
-      <c r="L241" s="63" t="s">
+      <c r="L241" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M241" s="65" t="s">
+      <c r="M241" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11517,7 +11538,7 @@
         <v>24</v>
       </c>
       <c r="I242" s="26" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J242" s="26" t="s">
         <v>30</v>
@@ -11526,10 +11547,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M06:Current2-Mon</v>
       </c>
-      <c r="L242" s="64" t="s">
+      <c r="L242" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M242" s="65"/>
+      <c r="M242" s="67"/>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="17">
@@ -11557,7 +11578,7 @@
         <v>24</v>
       </c>
       <c r="I243" s="52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J243" s="31" t="s">
         <v>26</v>
@@ -11566,10 +11587,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M07:Current1-Mon</v>
       </c>
-      <c r="L243" s="63" t="s">
+      <c r="L243" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M243" s="66" t="s">
+      <c r="M243" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11599,7 +11620,7 @@
         <v>24</v>
       </c>
       <c r="I244" s="26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J244" s="26" t="s">
         <v>30</v>
@@ -11608,10 +11629,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M07:Current2-Mon</v>
       </c>
-      <c r="L244" s="64" t="s">
+      <c r="L244" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M244" s="67"/>
+      <c r="M244" s="66"/>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="17">
@@ -11639,7 +11660,7 @@
         <v>24</v>
       </c>
       <c r="I245" s="52" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J245" s="31" t="s">
         <v>26</v>
@@ -11648,10 +11669,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M08:Current1-Mon</v>
       </c>
-      <c r="L245" s="63" t="s">
+      <c r="L245" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M245" s="65" t="s">
+      <c r="M245" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11681,7 +11702,7 @@
         <v>24</v>
       </c>
       <c r="I246" s="26" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J246" s="26" t="s">
         <v>30</v>
@@ -11690,10 +11711,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M08:Current2-Mon</v>
       </c>
-      <c r="L246" s="64" t="s">
+      <c r="L246" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M246" s="65"/>
+      <c r="M246" s="67"/>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="17">
@@ -11721,7 +11742,7 @@
         <v>24</v>
       </c>
       <c r="I247" s="52" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J247" s="31" t="s">
         <v>26</v>
@@ -11730,10 +11751,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M09:Current1-Mon</v>
       </c>
-      <c r="L247" s="63" t="s">
+      <c r="L247" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M247" s="66" t="s">
+      <c r="M247" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11763,7 +11784,7 @@
         <v>24</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J248" s="26" t="s">
         <v>30</v>
@@ -11772,10 +11793,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M09:Current2-Mon</v>
       </c>
-      <c r="L248" s="64" t="s">
+      <c r="L248" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M248" s="67"/>
+      <c r="M248" s="66"/>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="17">
@@ -11803,7 +11824,7 @@
         <v>24</v>
       </c>
       <c r="I249" s="52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J249" s="31" t="s">
         <v>26</v>
@@ -11812,10 +11833,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M10:Current1-Mon</v>
       </c>
-      <c r="L249" s="63" t="s">
+      <c r="L249" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M249" s="65" t="s">
+      <c r="M249" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11845,7 +11866,7 @@
         <v>24</v>
       </c>
       <c r="I250" s="26" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J250" s="26" t="s">
         <v>30</v>
@@ -11854,10 +11875,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M10:Current2-Mon</v>
       </c>
-      <c r="L250" s="64" t="s">
+      <c r="L250" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M250" s="65"/>
+      <c r="M250" s="67"/>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="17">
@@ -11885,19 +11906,19 @@
         <v>24</v>
       </c>
       <c r="I251" s="52" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J251" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K251" s="49" t="str">
         <f t="shared" si="3"/>
-        <v>RA-ToBO:RF-SSAmp-H07M01:Current1-Mon</v>
-      </c>
-      <c r="L251" s="63" t="s">
+        <v>RA-ToBO:RF-SSAmp-H07M11:Current1-Mon</v>
+      </c>
+      <c r="L251" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M251" s="66" t="s">
+      <c r="M251" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11927,19 +11948,19 @@
         <v>24</v>
       </c>
       <c r="I252" s="26" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J252" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K252" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>RA-ToBO:RF-SSAmp-H07M01:Current2-Mon</v>
-      </c>
-      <c r="L252" s="64" t="s">
+        <v>RA-ToBO:RF-SSAmp-H07M11:Current2-Mon</v>
+      </c>
+      <c r="L252" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M252" s="67"/>
+      <c r="M252" s="66"/>
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="17">
@@ -11967,7 +11988,7 @@
         <v>24</v>
       </c>
       <c r="I253" s="52" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J253" s="31" t="s">
         <v>26</v>
@@ -11976,10 +11997,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M12:Current1-Mon</v>
       </c>
-      <c r="L253" s="63" t="s">
+      <c r="L253" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M253" s="65" t="s">
+      <c r="M253" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12009,7 +12030,7 @@
         <v>24</v>
       </c>
       <c r="I254" s="26" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J254" s="26" t="s">
         <v>30</v>
@@ -12018,10 +12039,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M12:Current2-Mon</v>
       </c>
-      <c r="L254" s="64" t="s">
+      <c r="L254" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M254" s="65"/>
+      <c r="M254" s="67"/>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="17">
@@ -12049,7 +12070,7 @@
         <v>24</v>
       </c>
       <c r="I255" s="52" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J255" s="31" t="s">
         <v>26</v>
@@ -12058,10 +12079,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M13:Current1-Mon</v>
       </c>
-      <c r="L255" s="63" t="s">
+      <c r="L255" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M255" s="66" t="s">
+      <c r="M255" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12091,7 +12112,7 @@
         <v>24</v>
       </c>
       <c r="I256" s="26" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J256" s="26" t="s">
         <v>30</v>
@@ -12100,10 +12121,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M13:Current2-Mon</v>
       </c>
-      <c r="L256" s="64" t="s">
+      <c r="L256" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M256" s="67"/>
+      <c r="M256" s="66"/>
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="17">
@@ -12131,7 +12152,7 @@
         <v>24</v>
       </c>
       <c r="I257" s="52" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J257" s="31" t="s">
         <v>26</v>
@@ -12140,10 +12161,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M14:Current1-Mon</v>
       </c>
-      <c r="L257" s="63" t="s">
+      <c r="L257" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M257" s="65" t="s">
+      <c r="M257" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12173,7 +12194,7 @@
         <v>24</v>
       </c>
       <c r="I258" s="26" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J258" s="26" t="s">
         <v>30</v>
@@ -12182,10 +12203,10 @@
         <f t="shared" si="3"/>
         <v>RA-ToBO:RF-SSAmp-H07M14:Current2-Mon</v>
       </c>
-      <c r="L258" s="64" t="s">
+      <c r="L258" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M258" s="65"/>
+      <c r="M258" s="67"/>
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="17">
@@ -12213,7 +12234,7 @@
         <v>24</v>
       </c>
       <c r="I259" s="52" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J259" s="31" t="s">
         <v>26</v>
@@ -12222,10 +12243,10 @@
         <f t="shared" ref="K259:K306" si="4">E259 &amp; "-" &amp; F259 &amp;":" &amp; G259 &amp; "-" &amp; H259 &amp; "-" &amp; I259 &amp; ":" &amp; J259</f>
         <v>RA-ToBO:RF-SSAmp-H07M15:Current1-Mon</v>
       </c>
-      <c r="L259" s="63" t="s">
+      <c r="L259" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M259" s="66" t="s">
+      <c r="M259" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12255,7 +12276,7 @@
         <v>24</v>
       </c>
       <c r="I260" s="26" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J260" s="26" t="s">
         <v>30</v>
@@ -12264,10 +12285,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H07M15:Current2-Mon</v>
       </c>
-      <c r="L260" s="64" t="s">
+      <c r="L260" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M260" s="67"/>
+      <c r="M260" s="66"/>
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="17">
@@ -12295,7 +12316,7 @@
         <v>24</v>
       </c>
       <c r="I261" s="52" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J261" s="31" t="s">
         <v>26</v>
@@ -12304,10 +12325,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H07M16:Current1-Mon</v>
       </c>
-      <c r="L261" s="63" t="s">
+      <c r="L261" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M261" s="65" t="s">
+      <c r="M261" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12337,7 +12358,7 @@
         <v>24</v>
       </c>
       <c r="I262" s="26" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J262" s="26" t="s">
         <v>30</v>
@@ -12346,10 +12367,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H07M16:Current2-Mon</v>
       </c>
-      <c r="L262" s="64" t="s">
+      <c r="L262" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M262" s="65"/>
+      <c r="M262" s="67"/>
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="17">
@@ -12377,7 +12398,7 @@
         <v>24</v>
       </c>
       <c r="I263" s="52" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J263" s="31" t="s">
         <v>26</v>
@@ -12386,10 +12407,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H07M17:Current1-Mon</v>
       </c>
-      <c r="L263" s="63" t="s">
+      <c r="L263" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M263" s="66" t="s">
+      <c r="M263" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12419,7 +12440,7 @@
         <v>24</v>
       </c>
       <c r="I264" s="26" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J264" s="26" t="s">
         <v>30</v>
@@ -12428,10 +12449,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H07M17:Current2-Mon</v>
       </c>
-      <c r="L264" s="64" t="s">
+      <c r="L264" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M264" s="67"/>
+      <c r="M264" s="66"/>
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="17">
@@ -12459,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="I265" s="31" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J265" s="31" t="s">
         <v>88</v>
@@ -12468,7 +12489,7 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-HeatSink-H07:PwrRevBot-Mon</v>
       </c>
-      <c r="L265" s="63" t="s">
+      <c r="L265" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M265" s="2" t="s">
@@ -12501,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="I266" s="26" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J266" s="26" t="s">
         <v>91</v>
@@ -12510,7 +12531,7 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-HeatSink-H07:PwrFwdBot-Mon</v>
       </c>
-      <c r="L266" s="64" t="s">
+      <c r="L266" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M266" s="46" t="s">
@@ -12543,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="I267" s="31" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J267" s="31" t="s">
         <v>93</v>
@@ -12552,7 +12573,7 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-HeatSink-H07:PwrRevTop-Mon</v>
       </c>
-      <c r="L267" s="63" t="s">
+      <c r="L267" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M267" s="2" t="s">
@@ -12585,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="37" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J268" s="37" t="s">
         <v>94</v>
@@ -12627,7 +12648,7 @@
         <v>24</v>
       </c>
       <c r="I269" s="31" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J269" s="31" t="s">
         <v>26</v>
@@ -12636,10 +12657,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M01:Current1-Mon</v>
       </c>
-      <c r="L269" s="63" t="s">
+      <c r="L269" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M269" s="66" t="s">
+      <c r="M269" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12669,7 +12690,7 @@
         <v>24</v>
       </c>
       <c r="I270" s="26" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J270" s="26" t="s">
         <v>30</v>
@@ -12678,10 +12699,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M01:Current2-Mon</v>
       </c>
-      <c r="L270" s="64" t="s">
+      <c r="L270" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M270" s="67"/>
+      <c r="M270" s="66"/>
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="17">
@@ -12709,7 +12730,7 @@
         <v>24</v>
       </c>
       <c r="I271" s="31" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J271" s="31" t="s">
         <v>26</v>
@@ -12718,10 +12739,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M02:Current1-Mon</v>
       </c>
-      <c r="L271" s="63" t="s">
+      <c r="L271" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="M271" s="65" t="s">
+      <c r="M271" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12751,7 +12772,7 @@
         <v>24</v>
       </c>
       <c r="I272" s="26" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J272" s="26" t="s">
         <v>30</v>
@@ -12760,10 +12781,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M02:Current2-Mon</v>
       </c>
-      <c r="L272" s="64" t="s">
+      <c r="L272" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M272" s="65"/>
+      <c r="M272" s="67"/>
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="17">
@@ -12791,7 +12812,7 @@
         <v>24</v>
       </c>
       <c r="I273" s="31" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J273" s="31" t="s">
         <v>26</v>
@@ -12800,10 +12821,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M03:Current1-Mon</v>
       </c>
-      <c r="L273" s="63" t="s">
+      <c r="L273" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M273" s="66" t="s">
+      <c r="M273" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12833,7 +12854,7 @@
         <v>24</v>
       </c>
       <c r="I274" s="26" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J274" s="26" t="s">
         <v>30</v>
@@ -12842,10 +12863,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M03:Current2-Mon</v>
       </c>
-      <c r="L274" s="64" t="s">
+      <c r="L274" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M274" s="67"/>
+      <c r="M274" s="66"/>
     </row>
     <row r="275" spans="1:13">
       <c r="A275" s="17">
@@ -12873,7 +12894,7 @@
         <v>24</v>
       </c>
       <c r="I275" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J275" s="31" t="s">
         <v>26</v>
@@ -12882,10 +12903,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M04:Current1-Mon</v>
       </c>
-      <c r="L275" s="63" t="s">
+      <c r="L275" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="M275" s="65" t="s">
+      <c r="M275" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12915,7 +12936,7 @@
         <v>24</v>
       </c>
       <c r="I276" s="26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J276" s="26" t="s">
         <v>30</v>
@@ -12924,10 +12945,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M04:Current2-Mon</v>
       </c>
-      <c r="L276" s="64" t="s">
+      <c r="L276" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M276" s="65"/>
+      <c r="M276" s="67"/>
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="17">
@@ -12955,7 +12976,7 @@
         <v>24</v>
       </c>
       <c r="I277" s="52" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J277" s="31" t="s">
         <v>26</v>
@@ -12964,10 +12985,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M05:Current1-Mon</v>
       </c>
-      <c r="L277" s="63" t="s">
+      <c r="L277" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M277" s="66" t="s">
+      <c r="M277" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12997,7 +13018,7 @@
         <v>24</v>
       </c>
       <c r="I278" s="26" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J278" s="26" t="s">
         <v>30</v>
@@ -13006,10 +13027,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M05:Current2-Mon</v>
       </c>
-      <c r="L278" s="64" t="s">
+      <c r="L278" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M278" s="67"/>
+      <c r="M278" s="66"/>
     </row>
     <row r="279" spans="1:13">
       <c r="A279" s="17">
@@ -13037,7 +13058,7 @@
         <v>24</v>
       </c>
       <c r="I279" s="52" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J279" s="31" t="s">
         <v>26</v>
@@ -13046,10 +13067,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M06:Current1-Mon</v>
       </c>
-      <c r="L279" s="63" t="s">
+      <c r="L279" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="M279" s="65" t="s">
+      <c r="M279" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13079,7 +13100,7 @@
         <v>24</v>
       </c>
       <c r="I280" s="26" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J280" s="26" t="s">
         <v>30</v>
@@ -13088,10 +13109,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M06:Current2-Mon</v>
       </c>
-      <c r="L280" s="64" t="s">
+      <c r="L280" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="M280" s="65"/>
+      <c r="M280" s="67"/>
     </row>
     <row r="281" spans="1:13">
       <c r="A281" s="17">
@@ -13119,7 +13140,7 @@
         <v>24</v>
       </c>
       <c r="I281" s="52" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J281" s="31" t="s">
         <v>26</v>
@@ -13128,10 +13149,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M07:Current1-Mon</v>
       </c>
-      <c r="L281" s="63" t="s">
+      <c r="L281" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M281" s="66" t="s">
+      <c r="M281" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13161,7 +13182,7 @@
         <v>24</v>
       </c>
       <c r="I282" s="26" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J282" s="26" t="s">
         <v>30</v>
@@ -13170,10 +13191,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M07:Current2-Mon</v>
       </c>
-      <c r="L282" s="64" t="s">
+      <c r="L282" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M282" s="67"/>
+      <c r="M282" s="66"/>
     </row>
     <row r="283" spans="1:13">
       <c r="A283" s="17">
@@ -13201,7 +13222,7 @@
         <v>24</v>
       </c>
       <c r="I283" s="52" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J283" s="31" t="s">
         <v>26</v>
@@ -13210,10 +13231,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M08:Current1-Mon</v>
       </c>
-      <c r="L283" s="63" t="s">
+      <c r="L283" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M283" s="65" t="s">
+      <c r="M283" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13243,7 +13264,7 @@
         <v>24</v>
       </c>
       <c r="I284" s="26" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J284" s="26" t="s">
         <v>30</v>
@@ -13252,10 +13273,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M08:Current2-Mon</v>
       </c>
-      <c r="L284" s="64" t="s">
+      <c r="L284" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="M284" s="65"/>
+      <c r="M284" s="67"/>
     </row>
     <row r="285" spans="1:13">
       <c r="A285" s="17">
@@ -13283,7 +13304,7 @@
         <v>24</v>
       </c>
       <c r="I285" s="52" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J285" s="31" t="s">
         <v>26</v>
@@ -13292,10 +13313,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M09:Current1-Mon</v>
       </c>
-      <c r="L285" s="63" t="s">
+      <c r="L285" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M285" s="66" t="s">
+      <c r="M285" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13325,7 +13346,7 @@
         <v>24</v>
       </c>
       <c r="I286" s="26" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J286" s="26" t="s">
         <v>30</v>
@@ -13334,10 +13355,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M09:Current2-Mon</v>
       </c>
-      <c r="L286" s="64" t="s">
+      <c r="L286" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M286" s="67"/>
+      <c r="M286" s="66"/>
     </row>
     <row r="287" spans="1:13">
       <c r="A287" s="17">
@@ -13365,7 +13386,7 @@
         <v>24</v>
       </c>
       <c r="I287" s="52" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J287" s="31" t="s">
         <v>26</v>
@@ -13374,10 +13395,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M10:Current1-Mon</v>
       </c>
-      <c r="L287" s="63" t="s">
+      <c r="L287" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M287" s="65" t="s">
+      <c r="M287" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13407,7 +13428,7 @@
         <v>24</v>
       </c>
       <c r="I288" s="26" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J288" s="26" t="s">
         <v>30</v>
@@ -13416,10 +13437,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M10:Current2-Mon</v>
       </c>
-      <c r="L288" s="64" t="s">
+      <c r="L288" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M288" s="65"/>
+      <c r="M288" s="67"/>
     </row>
     <row r="289" spans="1:13">
       <c r="A289" s="17">
@@ -13447,19 +13468,19 @@
         <v>24</v>
       </c>
       <c r="I289" s="52" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J289" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K289" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>RA-ToBO:RF-SSAmp-H08M01:Current1-Mon</v>
-      </c>
-      <c r="L289" s="63" t="s">
+        <v>RA-ToBO:RF-SSAmp-H08M11:Current1-Mon</v>
+      </c>
+      <c r="L289" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M289" s="66" t="s">
+      <c r="M289" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13489,19 +13510,19 @@
         <v>24</v>
       </c>
       <c r="I290" s="26" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J290" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K290" s="48" t="str">
         <f t="shared" si="4"/>
-        <v>RA-ToBO:RF-SSAmp-H08M01:Current2-Mon</v>
-      </c>
-      <c r="L290" s="64" t="s">
+        <v>RA-ToBO:RF-SSAmp-H08M11:Current2-Mon</v>
+      </c>
+      <c r="L290" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="M290" s="67"/>
+      <c r="M290" s="66"/>
     </row>
     <row r="291" spans="1:13">
       <c r="A291" s="17">
@@ -13529,7 +13550,7 @@
         <v>24</v>
       </c>
       <c r="I291" s="52" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J291" s="31" t="s">
         <v>26</v>
@@ -13538,10 +13559,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M12:Current1-Mon</v>
       </c>
-      <c r="L291" s="63" t="s">
+      <c r="L291" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="M291" s="65" t="s">
+      <c r="M291" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13571,7 +13592,7 @@
         <v>24</v>
       </c>
       <c r="I292" s="26" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J292" s="26" t="s">
         <v>30</v>
@@ -13580,10 +13601,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M12:Current2-Mon</v>
       </c>
-      <c r="L292" s="64" t="s">
+      <c r="L292" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="M292" s="65"/>
+      <c r="M292" s="67"/>
     </row>
     <row r="293" spans="1:13">
       <c r="A293" s="17">
@@ -13611,7 +13632,7 @@
         <v>24</v>
       </c>
       <c r="I293" s="52" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J293" s="31" t="s">
         <v>26</v>
@@ -13620,10 +13641,10 @@
         <f>E293 &amp; "-" &amp; F293 &amp;":" &amp; G293 &amp; "-" &amp; H293 &amp; "-" &amp; I293 &amp; ":" &amp; J293</f>
         <v>RA-ToBO:RF-SSAmp-H08M13:Current1-Mon</v>
       </c>
-      <c r="L293" s="63" t="s">
+      <c r="L293" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M293" s="66" t="s">
+      <c r="M293" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13653,7 +13674,7 @@
         <v>24</v>
       </c>
       <c r="I294" s="26" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J294" s="26" t="s">
         <v>30</v>
@@ -13662,10 +13683,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M13:Current2-Mon</v>
       </c>
-      <c r="L294" s="64" t="s">
+      <c r="L294" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M294" s="67"/>
+      <c r="M294" s="66"/>
     </row>
     <row r="295" spans="1:13">
       <c r="A295" s="17">
@@ -13693,7 +13714,7 @@
         <v>24</v>
       </c>
       <c r="I295" s="52" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J295" s="31" t="s">
         <v>26</v>
@@ -13702,10 +13723,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M14:Current1-Mon</v>
       </c>
-      <c r="L295" s="63" t="s">
+      <c r="L295" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M295" s="65" t="s">
+      <c r="M295" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13735,7 +13756,7 @@
         <v>24</v>
       </c>
       <c r="I296" s="26" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J296" s="26" t="s">
         <v>30</v>
@@ -13744,10 +13765,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M14:Current2-Mon</v>
       </c>
-      <c r="L296" s="64" t="s">
+      <c r="L296" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M296" s="65"/>
+      <c r="M296" s="67"/>
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="17">
@@ -13775,7 +13796,7 @@
         <v>24</v>
       </c>
       <c r="I297" s="52" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J297" s="31" t="s">
         <v>26</v>
@@ -13784,10 +13805,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M15:Current1-Mon</v>
       </c>
-      <c r="L297" s="63" t="s">
+      <c r="L297" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M297" s="66" t="s">
+      <c r="M297" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13817,7 +13838,7 @@
         <v>24</v>
       </c>
       <c r="I298" s="26" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J298" s="26" t="s">
         <v>30</v>
@@ -13826,10 +13847,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M15:Current2-Mon</v>
       </c>
-      <c r="L298" s="64" t="s">
+      <c r="L298" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M298" s="67"/>
+      <c r="M298" s="66"/>
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="17">
@@ -13857,7 +13878,7 @@
         <v>24</v>
       </c>
       <c r="I299" s="52" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J299" s="31" t="s">
         <v>26</v>
@@ -13866,10 +13887,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M16:Current1-Mon</v>
       </c>
-      <c r="L299" s="63" t="s">
+      <c r="L299" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M299" s="65" t="s">
+      <c r="M299" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13899,7 +13920,7 @@
         <v>24</v>
       </c>
       <c r="I300" s="26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J300" s="26" t="s">
         <v>30</v>
@@ -13908,10 +13929,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M16:Current2-Mon</v>
       </c>
-      <c r="L300" s="64" t="s">
+      <c r="L300" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="M300" s="65"/>
+      <c r="M300" s="67"/>
     </row>
     <row r="301" spans="1:13">
       <c r="A301" s="17">
@@ -13939,7 +13960,7 @@
         <v>24</v>
       </c>
       <c r="I301" s="52" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J301" s="31" t="s">
         <v>26</v>
@@ -13948,10 +13969,10 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-SSAmp-H08M17:Current1-Mon</v>
       </c>
-      <c r="L301" s="63" t="s">
+      <c r="L301" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="M301" s="66" t="s">
+      <c r="M301" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13981,7 +14002,7 @@
         <v>24</v>
       </c>
       <c r="I302" s="26" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J302" s="26" t="s">
         <v>30</v>
@@ -13990,10 +14011,10 @@
         <f>E302 &amp; "-" &amp; F302 &amp;":" &amp; G302 &amp; "-" &amp; H302 &amp; "-" &amp; I302 &amp; ":" &amp; J302</f>
         <v>RA-ToBO:RF-SSAmp-H08M17:Current2-Mon</v>
       </c>
-      <c r="L302" s="64" t="s">
+      <c r="L302" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M302" s="67"/>
+      <c r="M302" s="66"/>
     </row>
     <row r="303" spans="1:13">
       <c r="A303" s="17">
@@ -14018,10 +14039,10 @@
         <v>18</v>
       </c>
       <c r="H303" s="31" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I303" s="31" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J303" s="31" t="s">
         <v>88</v>
@@ -14030,7 +14051,7 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-HeatSInk-H08:PwrRevBot-Mon</v>
       </c>
-      <c r="L303" s="63" t="s">
+      <c r="L303" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M303" s="2" t="s">
@@ -14063,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="26" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J304" s="26" t="s">
         <v>91</v>
@@ -14072,7 +14093,7 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-HeatSink-H08:PwrFwdBot-Mon</v>
       </c>
-      <c r="L304" s="64" t="s">
+      <c r="L304" s="63" t="s">
         <v>89</v>
       </c>
       <c r="M304" s="46" t="s">
@@ -14105,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="31" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J305" s="31" t="s">
         <v>93</v>
@@ -14114,7 +14135,7 @@
         <f t="shared" si="4"/>
         <v>RA-ToBO:RF-HeatSink-H08:PwrRevTop-Mon</v>
       </c>
-      <c r="L305" s="63" t="s">
+      <c r="L305" s="64" t="s">
         <v>89</v>
       </c>
       <c r="M305" s="2" t="s">
@@ -14147,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="37" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J306" s="62" t="s">
         <v>94</v>
@@ -14192,17 +14213,17 @@
         <v>20</v>
       </c>
       <c r="J307" s="31" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K307" s="49" t="str">
         <f>E307 &amp; "-" &amp; F307 &amp;":" &amp; G307 &amp; "-" &amp; H307 &amp; ":" &amp; J307</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrRevIn-Mon</v>
       </c>
-      <c r="L307" s="63" t="s">
-        <v>216</v>
+      <c r="L307" s="64" t="s">
+        <v>223</v>
       </c>
       <c r="M307" s="46" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N307" s="46"/>
     </row>
@@ -14235,17 +14256,17 @@
         <v>20</v>
       </c>
       <c r="J308" s="26" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K308" s="48" t="str">
         <f>E308 &amp; "-" &amp; F308 &amp;":" &amp; G308 &amp; "-" &amp; H308 &amp; ":" &amp; J308</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrFwdIn-Mon</v>
       </c>
-      <c r="L308" s="64" t="s">
-        <v>216</v>
+      <c r="L308" s="63" t="s">
+        <v>223</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N308" s="3"/>
     </row>
@@ -14278,17 +14299,17 @@
         <v>20</v>
       </c>
       <c r="J309" s="31" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K309" s="49" t="str">
         <f>E309 &amp; "-" &amp; F309 &amp;":" &amp; G309 &amp; "-" &amp; H309 &amp; ":" &amp; J309</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrRevOut-Mon</v>
       </c>
-      <c r="L309" s="63" t="s">
-        <v>216</v>
+      <c r="L309" s="64" t="s">
+        <v>223</v>
       </c>
       <c r="M309" s="47" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N309" s="47"/>
     </row>
@@ -14321,32 +14342,32 @@
         <v>20</v>
       </c>
       <c r="J310" s="43" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K310" s="48" t="str">
         <f>E310 &amp; "-" &amp; F310 &amp;":" &amp; G310 &amp; "-" &amp; H310 &amp; ":" &amp; J310</f>
         <v>RA-ToBO:RF-SSAmpTower:PwrFwdOut-Mon</v>
       </c>
       <c r="L310" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N310" s="2"/>
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14363,24 +14384,112 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M295:M296"/>
+    <mergeCell ref="M297:M298"/>
+    <mergeCell ref="M299:M300"/>
+    <mergeCell ref="M301:M302"/>
+    <mergeCell ref="M283:M284"/>
+    <mergeCell ref="M285:M286"/>
+    <mergeCell ref="M287:M288"/>
+    <mergeCell ref="M289:M290"/>
+    <mergeCell ref="M291:M292"/>
+    <mergeCell ref="M293:M294"/>
+    <mergeCell ref="M271:M272"/>
+    <mergeCell ref="M273:M274"/>
+    <mergeCell ref="M275:M276"/>
+    <mergeCell ref="M277:M278"/>
+    <mergeCell ref="M279:M280"/>
+    <mergeCell ref="M281:M282"/>
+    <mergeCell ref="M255:M256"/>
+    <mergeCell ref="M257:M258"/>
+    <mergeCell ref="M259:M260"/>
+    <mergeCell ref="M261:M262"/>
+    <mergeCell ref="M263:M264"/>
+    <mergeCell ref="M269:M270"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="M245:M246"/>
+    <mergeCell ref="M247:M248"/>
+    <mergeCell ref="M249:M250"/>
+    <mergeCell ref="M251:M252"/>
+    <mergeCell ref="M253:M254"/>
+    <mergeCell ref="M231:M232"/>
+    <mergeCell ref="M233:M234"/>
+    <mergeCell ref="M235:M236"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="M241:M242"/>
+    <mergeCell ref="M215:M216"/>
+    <mergeCell ref="M217:M218"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="M221:M222"/>
+    <mergeCell ref="M223:M224"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="M203:M204"/>
+    <mergeCell ref="M205:M206"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="M209:M210"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="M187:M188"/>
+    <mergeCell ref="M193:M194"/>
+    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="M197:M198"/>
+    <mergeCell ref="M199:M200"/>
+    <mergeCell ref="M201:M202"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="M181:M182"/>
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="M137:M138"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="M81:M82"/>
     <mergeCell ref="M55:M56"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="M59:M60"/>
@@ -14393,112 +14502,24 @@
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="M137:M138"/>
-    <mergeCell ref="M139:M140"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="M187:M188"/>
-    <mergeCell ref="M193:M194"/>
-    <mergeCell ref="M195:M196"/>
-    <mergeCell ref="M197:M198"/>
-    <mergeCell ref="M199:M200"/>
-    <mergeCell ref="M201:M202"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="M181:M182"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="M215:M216"/>
-    <mergeCell ref="M217:M218"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="M221:M222"/>
-    <mergeCell ref="M223:M224"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="M203:M204"/>
-    <mergeCell ref="M205:M206"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="M209:M210"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="M245:M246"/>
-    <mergeCell ref="M247:M248"/>
-    <mergeCell ref="M249:M250"/>
-    <mergeCell ref="M251:M252"/>
-    <mergeCell ref="M253:M254"/>
-    <mergeCell ref="M231:M232"/>
-    <mergeCell ref="M233:M234"/>
-    <mergeCell ref="M235:M236"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="M241:M242"/>
-    <mergeCell ref="M271:M272"/>
-    <mergeCell ref="M273:M274"/>
-    <mergeCell ref="M275:M276"/>
-    <mergeCell ref="M277:M278"/>
-    <mergeCell ref="M279:M280"/>
-    <mergeCell ref="M281:M282"/>
-    <mergeCell ref="M255:M256"/>
-    <mergeCell ref="M257:M258"/>
-    <mergeCell ref="M259:M260"/>
-    <mergeCell ref="M261:M262"/>
-    <mergeCell ref="M263:M264"/>
-    <mergeCell ref="M269:M270"/>
-    <mergeCell ref="M295:M296"/>
-    <mergeCell ref="M297:M298"/>
-    <mergeCell ref="M299:M300"/>
-    <mergeCell ref="M301:M302"/>
-    <mergeCell ref="M283:M284"/>
-    <mergeCell ref="M285:M286"/>
-    <mergeCell ref="M287:M288"/>
-    <mergeCell ref="M289:M290"/>
-    <mergeCell ref="M291:M292"/>
-    <mergeCell ref="M293:M294"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -14575,7 +14596,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="56" t="str">
         <f t="shared" si="0"/>
@@ -14596,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F4" s="56" t="str">
         <f t="shared" si="0"/>
@@ -14617,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F5" s="56" t="str">
         <f t="shared" si="0"/>
@@ -14638,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F6" s="56" t="str">
         <f t="shared" si="0"/>
@@ -14659,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F7" s="56" t="str">
         <f t="shared" si="0"/>
@@ -14680,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F8" s="56" t="str">
         <f t="shared" si="0"/>
@@ -14698,10 +14719,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F9" s="56" t="str">
         <f t="shared" si="0"/>
@@ -15310,7 +15331,7 @@
         <v>24</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15331,7 +15352,7 @@
         <v>24</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F39" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15352,7 +15373,7 @@
         <v>24</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F40" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15373,7 +15394,7 @@
         <v>24</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15394,7 +15415,7 @@
         <v>24</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F42" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15415,7 +15436,7 @@
         <v>24</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F43" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15436,7 +15457,7 @@
         <v>24</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F44" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15457,7 +15478,7 @@
         <v>24</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F45" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15478,7 +15499,7 @@
         <v>24</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F46" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15499,7 +15520,7 @@
         <v>24</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15520,7 +15541,7 @@
         <v>24</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F48" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15541,7 +15562,7 @@
         <v>24</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F49" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15562,7 +15583,7 @@
         <v>24</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F50" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15583,7 +15604,7 @@
         <v>24</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F51" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15604,7 +15625,7 @@
         <v>24</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F52" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15625,7 +15646,7 @@
         <v>24</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F53" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15646,7 +15667,7 @@
         <v>24</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F54" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15667,7 +15688,7 @@
         <v>24</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F55" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15688,7 +15709,7 @@
         <v>24</v>
       </c>
       <c r="E56" s="54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F56" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15709,7 +15730,7 @@
         <v>24</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F57" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15730,7 +15751,7 @@
         <v>24</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F58" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15751,7 +15772,7 @@
         <v>24</v>
       </c>
       <c r="E59" s="54" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F59" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15772,7 +15793,7 @@
         <v>24</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F60" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15793,7 +15814,7 @@
         <v>24</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F61" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15814,7 +15835,7 @@
         <v>24</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F62" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15835,7 +15856,7 @@
         <v>24</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F63" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15856,7 +15877,7 @@
         <v>24</v>
       </c>
       <c r="E64" s="54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F64" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15877,7 +15898,7 @@
         <v>24</v>
       </c>
       <c r="E65" s="54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F65" s="56" t="str">
         <f t="shared" si="1"/>
@@ -15898,7 +15919,7 @@
         <v>24</v>
       </c>
       <c r="E66" s="54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F66" s="56" t="str">
         <f t="shared" ref="F66:F97" si="2">A66 &amp; "-" &amp; B66 &amp;":" &amp; C66 &amp; "-" &amp; D66 &amp; IF(OR(EXACT(E66,"-"),  EXACT(E66,"")),"", "-" &amp; E66)</f>
@@ -15919,7 +15940,7 @@
         <v>24</v>
       </c>
       <c r="E67" s="54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F67" s="56" t="str">
         <f t="shared" si="2"/>
@@ -15940,7 +15961,7 @@
         <v>24</v>
       </c>
       <c r="E68" s="54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F68" s="56" t="str">
         <f t="shared" si="2"/>
@@ -15961,7 +15982,7 @@
         <v>24</v>
       </c>
       <c r="E69" s="54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F69" s="56" t="str">
         <f t="shared" si="2"/>
@@ -15982,7 +16003,7 @@
         <v>24</v>
       </c>
       <c r="E70" s="54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F70" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16003,7 +16024,7 @@
         <v>24</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F71" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16024,7 +16045,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="54" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F72" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16045,7 +16066,7 @@
         <v>24</v>
       </c>
       <c r="E73" s="54" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F73" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16066,7 +16087,7 @@
         <v>24</v>
       </c>
       <c r="E74" s="54" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F74" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16087,7 +16108,7 @@
         <v>24</v>
       </c>
       <c r="E75" s="54" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F75" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16108,7 +16129,7 @@
         <v>24</v>
       </c>
       <c r="E76" s="54" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F76" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16129,7 +16150,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F77" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16150,7 +16171,7 @@
         <v>24</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F78" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16171,7 +16192,7 @@
         <v>24</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F79" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16192,7 +16213,7 @@
         <v>24</v>
       </c>
       <c r="E80" s="54" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F80" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16213,7 +16234,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="54" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F81" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16234,7 +16255,7 @@
         <v>24</v>
       </c>
       <c r="E82" s="54" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F82" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16255,7 +16276,7 @@
         <v>24</v>
       </c>
       <c r="E83" s="54" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F83" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16276,7 +16297,7 @@
         <v>24</v>
       </c>
       <c r="E84" s="54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F84" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16297,7 +16318,7 @@
         <v>24</v>
       </c>
       <c r="E85" s="54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F85" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16318,7 +16339,7 @@
         <v>24</v>
       </c>
       <c r="E86" s="54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F86" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16339,7 +16360,7 @@
         <v>24</v>
       </c>
       <c r="E87" s="54" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F87" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16360,7 +16381,7 @@
         <v>24</v>
       </c>
       <c r="E88" s="54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F88" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16381,7 +16402,7 @@
         <v>24</v>
       </c>
       <c r="E89" s="54" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F89" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16402,7 +16423,7 @@
         <v>24</v>
       </c>
       <c r="E90" s="54" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F90" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16423,7 +16444,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F91" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16444,7 +16465,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F92" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16465,7 +16486,7 @@
         <v>24</v>
       </c>
       <c r="E93" s="54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F93" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16486,7 +16507,7 @@
         <v>24</v>
       </c>
       <c r="E94" s="54" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F94" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16507,7 +16528,7 @@
         <v>24</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F95" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16528,7 +16549,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F96" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16549,7 +16570,7 @@
         <v>24</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F97" s="56" t="str">
         <f t="shared" si="2"/>
@@ -16570,7 +16591,7 @@
         <v>24</v>
       </c>
       <c r="E98" s="54" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F98" s="56" t="str">
         <f t="shared" ref="F98:F129" si="3">A98 &amp; "-" &amp; B98 &amp;":" &amp; C98 &amp; "-" &amp; D98 &amp; IF(OR(EXACT(E98,"-"),  EXACT(E98,"")),"", "-" &amp; E98)</f>
@@ -16591,7 +16612,7 @@
         <v>24</v>
       </c>
       <c r="E99" s="54" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F99" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16612,7 +16633,7 @@
         <v>24</v>
       </c>
       <c r="E100" s="54" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F100" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16633,7 +16654,7 @@
         <v>24</v>
       </c>
       <c r="E101" s="54" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F101" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16654,7 +16675,7 @@
         <v>24</v>
       </c>
       <c r="E102" s="54" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F102" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16675,7 +16696,7 @@
         <v>24</v>
       </c>
       <c r="E103" s="54" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F103" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16696,7 +16717,7 @@
         <v>24</v>
       </c>
       <c r="E104" s="54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F104" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16717,7 +16738,7 @@
         <v>24</v>
       </c>
       <c r="E105" s="54" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F105" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16738,7 +16759,7 @@
         <v>24</v>
       </c>
       <c r="E106" s="54" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F106" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16759,7 +16780,7 @@
         <v>24</v>
       </c>
       <c r="E107" s="54" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F107" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16780,7 +16801,7 @@
         <v>24</v>
       </c>
       <c r="E108" s="54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F108" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16801,7 +16822,7 @@
         <v>24</v>
       </c>
       <c r="E109" s="54" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F109" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16822,7 +16843,7 @@
         <v>24</v>
       </c>
       <c r="E110" s="54" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F110" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16843,7 +16864,7 @@
         <v>24</v>
       </c>
       <c r="E111" s="54" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F111" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16864,7 +16885,7 @@
         <v>24</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F112" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16885,7 +16906,7 @@
         <v>24</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F113" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16906,7 +16927,7 @@
         <v>24</v>
       </c>
       <c r="E114" s="54" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F114" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16927,7 +16948,7 @@
         <v>24</v>
       </c>
       <c r="E115" s="54" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F115" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16948,7 +16969,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="54" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F116" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16969,7 +16990,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="54" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F117" s="56" t="str">
         <f t="shared" si="3"/>
@@ -16990,7 +17011,7 @@
         <v>24</v>
       </c>
       <c r="E118" s="54" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F118" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17011,7 +17032,7 @@
         <v>24</v>
       </c>
       <c r="E119" s="54" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F119" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17032,7 +17053,7 @@
         <v>24</v>
       </c>
       <c r="E120" s="54" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F120" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17053,7 +17074,7 @@
         <v>24</v>
       </c>
       <c r="E121" s="54" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F121" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17074,7 +17095,7 @@
         <v>24</v>
       </c>
       <c r="E122" s="54" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F122" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17095,7 +17116,7 @@
         <v>24</v>
       </c>
       <c r="E123" s="54" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F123" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17116,7 +17137,7 @@
         <v>24</v>
       </c>
       <c r="E124" s="54" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F124" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17137,7 +17158,7 @@
         <v>24</v>
       </c>
       <c r="E125" s="54" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F125" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17158,7 +17179,7 @@
         <v>24</v>
       </c>
       <c r="E126" s="54" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F126" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17179,7 +17200,7 @@
         <v>24</v>
       </c>
       <c r="E127" s="54" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F127" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17200,7 +17221,7 @@
         <v>24</v>
       </c>
       <c r="E128" s="54" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F128" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17221,7 +17242,7 @@
         <v>24</v>
       </c>
       <c r="E129" s="55" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F129" s="56" t="str">
         <f t="shared" si="3"/>
@@ -17242,7 +17263,7 @@
         <v>24</v>
       </c>
       <c r="E130" s="55" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F130" s="56" t="str">
         <f t="shared" ref="F130:F161" si="4">A130 &amp; "-" &amp; B130 &amp;":" &amp; C130 &amp; "-" &amp; D130 &amp; IF(OR(EXACT(E130,"-"),  EXACT(E130,"")),"", "-" &amp; E130)</f>
@@ -17263,7 +17284,7 @@
         <v>24</v>
       </c>
       <c r="E131" s="55" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F131" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17284,7 +17305,7 @@
         <v>24</v>
       </c>
       <c r="E132" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F132" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17305,7 +17326,7 @@
         <v>24</v>
       </c>
       <c r="E133" s="54" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F133" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17326,7 +17347,7 @@
         <v>24</v>
       </c>
       <c r="E134" s="54" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F134" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17347,7 +17368,7 @@
         <v>24</v>
       </c>
       <c r="E135" s="54" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F135" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17368,7 +17389,7 @@
         <v>24</v>
       </c>
       <c r="E136" s="54" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F136" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17389,7 +17410,7 @@
         <v>24</v>
       </c>
       <c r="E137" s="54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F137" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17410,7 +17431,7 @@
         <v>24</v>
       </c>
       <c r="E138" s="54" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F138" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17431,7 +17452,7 @@
         <v>24</v>
       </c>
       <c r="E139" s="54" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F139" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17452,7 +17473,7 @@
         <v>24</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F140" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17473,7 +17494,7 @@
         <v>24</v>
       </c>
       <c r="E141" s="54" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F141" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17494,7 +17515,7 @@
         <v>24</v>
       </c>
       <c r="E142" s="54" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F142" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17515,7 +17536,7 @@
         <v>24</v>
       </c>
       <c r="E143" s="54" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F143" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17536,7 +17557,7 @@
         <v>24</v>
       </c>
       <c r="E144" s="54" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F144" s="56" t="str">
         <f t="shared" si="4"/>
@@ -17557,7 +17578,7 @@
         <v>24</v>
       </c>
       <c r="E145" s="54" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F145" s="56" t="str">
         <f t="shared" si="4"/>
@@ -18927,15 +18948,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a6ff473c24fc44163490d905b4ab4ee2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="243435ed956ade279fa1d023abedd985" ns2:_="" ns3:_="">
     <xsd:import namespace="40443515-7982-453e-8cc3-61a478897d4d"/>
@@ -19138,14 +19150,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{210FDAB5-8E17-4762-B1CB-54C1272C90BC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45D103D-A57F-47D5-B272-EC4090B47FD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787E83ED-F371-4B40-86FC-08DEA0F087A6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787E83ED-F371-4B40-86FC-08DEA0F087A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45D103D-A57F-47D5-B272-EC4090B47FD6}"/>
 </file>
--- a/documentation/SSABooster/Variáveis Aquisição Booster.xlsx
+++ b/documentation/SSABooster/Variáveis Aquisição Booster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_34f9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBE16CB-EBF0-43CD-B978-011F4C686053}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D455C8-A285-40C8-9D93-2907BCBC9C68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5002,14 +5002,14 @@
         <v>24</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J83" s="31" t="s">
         <v>26</v>
       </c>
       <c r="K83" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>RA-ToBO:RF-SSAmp-H03M02:Current1-Mon</v>
+        <v>RA-ToBO:RF-SSAmp-H03M03:Current1-Mon</v>
       </c>
       <c r="L83" s="64" t="s">
         <v>39</v>
